--- a/ProcessedData/conf_svm_transcript_5.xlsx
+++ b/ProcessedData/conf_svm_transcript_5.xlsx
@@ -14,18 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>video_number</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>prediction</t>
@@ -393,20 +384,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -414,13 +405,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-1.143523889909021</v>
+        <v>1.631988134211708</v>
       </c>
       <c r="C2">
-        <v>-0.967023149007568</v>
+        <v>1.252517454686759</v>
       </c>
       <c r="D2">
-        <v>0.5741568395851306</v>
+        <v>2.727427178514662</v>
+      </c>
+      <c r="E2">
+        <v>37</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -431,13 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-1.204250594564813</v>
+        <v>2.717887088881599</v>
       </c>
       <c r="C3">
-        <v>-1.239042398174845</v>
+        <v>2.296166630842792</v>
       </c>
       <c r="D3">
-        <v>0.6427217341496947</v>
+        <v>3.65961001722057</v>
+      </c>
+      <c r="E3">
+        <v>37</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -448,13 +445,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-1.372918571080531</v>
+        <v>1.424052889561242</v>
       </c>
       <c r="C4">
-        <v>-1.05778441348123</v>
+        <v>2.300126919256015</v>
       </c>
       <c r="D4">
-        <v>0.9168739763480551</v>
+        <v>3.541359748834289</v>
+      </c>
+      <c r="E4">
+        <v>37</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -465,13 +465,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-1.072078940236882</v>
+        <v>2.335526923816814</v>
       </c>
       <c r="C5">
-        <v>-1.096223414736855</v>
+        <v>1.888197105991285</v>
       </c>
       <c r="D5">
-        <v>0.4771972851350269</v>
+        <v>3.060817145616485</v>
+      </c>
+      <c r="E5">
+        <v>37</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -482,16 +485,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.9800113507029085</v>
+        <v>2.846671274239561</v>
       </c>
       <c r="C6">
-        <v>-1.06818378053645</v>
+        <v>1.191258129346265</v>
       </c>
       <c r="D6">
-        <v>0.2796434380517585</v>
+        <v>2.623907665241036</v>
+      </c>
+      <c r="E6">
+        <v>37</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -499,13 +505,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.8658375404715064</v>
+        <v>0.1075451523547105</v>
       </c>
       <c r="C7">
-        <v>-0.5986763728939599</v>
+        <v>0.800919111563779</v>
       </c>
       <c r="D7">
-        <v>0.3250839062175348</v>
+        <v>1.271571358262806</v>
+      </c>
+      <c r="E7">
+        <v>37</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -516,16 +525,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.3831669076294678</v>
+        <v>0.0834067972120725</v>
       </c>
       <c r="C8">
-        <v>-0.3279999385301529</v>
+        <v>-0.1006573148741325</v>
       </c>
       <c r="D8">
-        <v>-0.3581400993615192</v>
+        <v>-0.05364088410282686</v>
+      </c>
+      <c r="E8">
+        <v>37</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -533,13 +545,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-3.281217940368554</v>
+        <v>10.23074763089813</v>
       </c>
       <c r="C9">
-        <v>-3.394107953453612</v>
+        <v>5.469846799664283</v>
       </c>
       <c r="D9">
-        <v>2.938939748724357</v>
+        <v>12.00424220664274</v>
+      </c>
+      <c r="E9">
+        <v>37</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -550,13 +565,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-1.156240223140151</v>
+        <v>3.356484827659274</v>
       </c>
       <c r="C10">
-        <v>-1.258609091787104</v>
+        <v>1.735217495814941</v>
       </c>
       <c r="D10">
-        <v>0.5003427034046488</v>
+        <v>3.42229816071315</v>
+      </c>
+      <c r="E10">
+        <v>37</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -567,16 +585,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.8918969144842874</v>
+        <v>2.591764497529705</v>
       </c>
       <c r="C11">
-        <v>-0.9729711249111234</v>
+        <v>0.9192784461119277</v>
       </c>
       <c r="D11">
-        <v>0.1692938053753132</v>
+        <v>2.22471241750498</v>
+      </c>
+      <c r="E11">
+        <v>37</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -584,13 +605,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-2.59778419153663</v>
+        <v>2.937769976690232</v>
       </c>
       <c r="C12">
-        <v>-2.077208459213927</v>
+        <v>1.929901696374153</v>
       </c>
       <c r="D12">
-        <v>2.954179371288689</v>
+        <v>5.870961389311418</v>
+      </c>
+      <c r="E12">
+        <v>37</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -601,13 +625,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-2.715827792928975</v>
+        <v>7.588860941020186</v>
       </c>
       <c r="C13">
-        <v>-2.714832650956548</v>
+        <v>4.149104701094804</v>
       </c>
       <c r="D13">
-        <v>2.320723330703706</v>
+        <v>9.408648957021583</v>
+      </c>
+      <c r="E13">
+        <v>37</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -618,13 +645,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-1.800787243614652</v>
+        <v>3.233152175126756</v>
       </c>
       <c r="C14">
-        <v>-1.567178630499012</v>
+        <v>3.21903154941967</v>
       </c>
       <c r="D14">
-        <v>1.418483377231847</v>
+        <v>5.50561923900443</v>
+      </c>
+      <c r="E14">
+        <v>37</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -635,13 +665,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-2.042538754606584</v>
+        <v>4.686520968350246</v>
       </c>
       <c r="C15">
-        <v>-1.972970556935013</v>
+        <v>3.665253434647515</v>
       </c>
       <c r="D15">
-        <v>1.680571559616464</v>
+        <v>6.484094158943988</v>
+      </c>
+      <c r="E15">
+        <v>37</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -652,13 +685,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-1.862152381721284</v>
+        <v>4.640315106533101</v>
       </c>
       <c r="C16">
-        <v>-1.854820176901691</v>
+        <v>3.50804478968586</v>
       </c>
       <c r="D16">
-        <v>1.377398320002813</v>
+        <v>6.250681495455532</v>
+      </c>
+      <c r="E16">
+        <v>37</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -669,13 +705,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.923903828767396</v>
+        <v>2.166032671677922</v>
       </c>
       <c r="C17">
-        <v>-0.9599266625029508</v>
+        <v>1.293244536130495</v>
       </c>
       <c r="D17">
-        <v>0.2642131592053438</v>
+        <v>2.38292032184326</v>
+      </c>
+      <c r="E17">
+        <v>37</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -686,13 +725,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-1.274726711674073</v>
+        <v>2.333397844246728</v>
       </c>
       <c r="C18">
-        <v>-1.125553946415483</v>
+        <v>1.208200630465122</v>
       </c>
       <c r="D18">
-        <v>0.739669789714392</v>
+        <v>2.91240139465267</v>
+      </c>
+      <c r="E18">
+        <v>37</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -703,13 +745,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-2.369885719743938</v>
+        <v>7.904096741655756</v>
       </c>
       <c r="C19">
-        <v>-2.66528152317069</v>
+        <v>4.930990722675703</v>
       </c>
       <c r="D19">
-        <v>1.910573669553043</v>
+        <v>8.894213444209409</v>
+      </c>
+      <c r="E19">
+        <v>37</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -720,13 +765,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.7796818706132624</v>
+        <v>1.230487292406426</v>
       </c>
       <c r="C20">
-        <v>-0.7564568888441242</v>
+        <v>1.123251259680387</v>
       </c>
       <c r="D20">
-        <v>0.1384332476824841</v>
+        <v>1.742737730709427</v>
+      </c>
+      <c r="E20">
+        <v>37</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -737,13 +785,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.5593957800667098</v>
+        <v>0.5932203506317851</v>
       </c>
       <c r="C21">
-        <v>-0.5184252497808068</v>
+        <v>0.443302051594543</v>
       </c>
       <c r="D21">
-        <v>-0.1374408340086288</v>
+        <v>0.7447496113692862</v>
+      </c>
+      <c r="E21">
+        <v>37</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -754,13 +805,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-2.026703500507584</v>
+        <v>4.954009424277852</v>
       </c>
       <c r="C22">
-        <v>-1.998020820740198</v>
+        <v>3.823177957063897</v>
       </c>
       <c r="D22">
-        <v>1.611664681013093</v>
+        <v>6.633663677645688</v>
+      </c>
+      <c r="E22">
+        <v>37</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -771,16 +825,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.8978795972847433</v>
+        <v>2.062187482618209</v>
       </c>
       <c r="C23">
-        <v>-0.8285599645957735</v>
+        <v>0.585589447626345</v>
       </c>
       <c r="D23">
-        <v>0.1394418037022696</v>
+        <v>1.783638053035638</v>
+      </c>
+      <c r="E23">
+        <v>37</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -788,16 +845,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-1.994208766611047</v>
+        <v>6.241115229809944</v>
       </c>
       <c r="C24">
-        <v>-1.99640655663528</v>
+        <v>2.503172432094444</v>
       </c>
       <c r="D24">
-        <v>1.37505771814318</v>
+        <v>6.199905721662511</v>
+      </c>
+      <c r="E24">
+        <v>37</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -805,16 +865,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-4.053889989572023</v>
+        <v>15.91520184200193</v>
       </c>
       <c r="C25">
-        <v>-4.346073138749365</v>
+        <v>10.35460399323298</v>
       </c>
       <c r="D25">
-        <v>3.912101322806788</v>
+        <v>15.57038650611028</v>
+      </c>
+      <c r="E25">
+        <v>37</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -822,13 +885,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C26">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D26">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E26">
+        <v>37</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -839,13 +905,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-5.52572967227445</v>
+        <v>18.04183444283533</v>
       </c>
       <c r="C27">
-        <v>-5.949634754597271</v>
+        <v>12.64833082600583</v>
       </c>
       <c r="D27">
-        <v>5.695419290819446</v>
+        <v>22.32462357795</v>
+      </c>
+      <c r="E27">
+        <v>37</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -856,13 +925,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-1.191838405503496</v>
+        <v>0.6180718177652719</v>
       </c>
       <c r="C28">
-        <v>-0.8706057794175903</v>
+        <v>0.9043387076934664</v>
       </c>
       <c r="D28">
-        <v>0.8274626462473382</v>
+        <v>2.063593637006719</v>
+      </c>
+      <c r="E28">
+        <v>38</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -873,13 +945,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.8300180803313348</v>
+        <v>-0.09418482357353591</v>
       </c>
       <c r="C29">
-        <v>-0.5357077758496687</v>
+        <v>0.3169431508298261</v>
       </c>
       <c r="D29">
-        <v>0.3087712662963135</v>
+        <v>0.8503217519683333</v>
+      </c>
+      <c r="E29">
+        <v>38</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -890,16 +965,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.7476749563301539</v>
+        <v>1.656219118258209</v>
       </c>
       <c r="C30">
-        <v>-0.7695013512522968</v>
+        <v>0.7492851696618197</v>
       </c>
       <c r="D30">
-        <v>0.04351389385245352</v>
+        <v>1.584529826371147</v>
+      </c>
+      <c r="E30">
+        <v>38</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -907,13 +985,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.6034529981760204</v>
+        <v>0.7206737389867132</v>
       </c>
       <c r="C31">
-        <v>-0.5660315775934703</v>
+        <v>0.5792918932117117</v>
       </c>
       <c r="D31">
-        <v>-0.08226601767040626</v>
+        <v>0.9443472352373143</v>
+      </c>
+      <c r="E31">
+        <v>38</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -924,13 +1005,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.6034529981760204</v>
+        <v>0.7206737389867132</v>
       </c>
       <c r="C32">
-        <v>-0.5660315775934703</v>
+        <v>0.5792918932117117</v>
       </c>
       <c r="D32">
-        <v>-0.08226601767040626</v>
+        <v>0.9443472352373143</v>
+      </c>
+      <c r="E32">
+        <v>38</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -941,13 +1025,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-1.453984386830168</v>
+        <v>2.352316570398101</v>
       </c>
       <c r="C33">
-        <v>-1.295587251877183</v>
+        <v>2.486248246684971</v>
       </c>
       <c r="D33">
-        <v>0.9706302796430024</v>
+        <v>4.430119340602284</v>
+      </c>
+      <c r="E33">
+        <v>38</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -958,13 +1045,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-2.128733989729253</v>
+        <v>4.464235316218368</v>
       </c>
       <c r="C34">
-        <v>-1.942464313180805</v>
+        <v>3.272976687932303</v>
       </c>
       <c r="D34">
-        <v>1.738054224329142</v>
+        <v>6.818128785896977</v>
+      </c>
+      <c r="E34">
+        <v>38</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -975,16 +1065,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.3831669076294678</v>
+        <v>0.0834067972120725</v>
       </c>
       <c r="C35">
-        <v>-0.3279999385301529</v>
+        <v>-0.1006573148741325</v>
       </c>
       <c r="D35">
-        <v>-0.3581400993615192</v>
+        <v>-0.05364088410282686</v>
+      </c>
+      <c r="E35">
+        <v>38</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -992,13 +1085,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.661972937299556</v>
+        <v>0.06825894550269351</v>
       </c>
       <c r="C36">
-        <v>-0.4414064383373123</v>
+        <v>0.2263619466566436</v>
       </c>
       <c r="D36">
-        <v>-0.003274427289419957</v>
+        <v>0.5471571735454522</v>
+      </c>
+      <c r="E36">
+        <v>38</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -1009,13 +1105,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.9563497757513566</v>
+        <v>-0.5650100715017286</v>
       </c>
       <c r="C37">
-        <v>-0.5707361888698854</v>
+        <v>0.46352020489319</v>
       </c>
       <c r="D37">
-        <v>0.5848024865247916</v>
+        <v>1.021582739970182</v>
+      </c>
+      <c r="E37">
+        <v>38</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -1026,13 +1125,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C38">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D38">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E38">
+        <v>38</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1043,13 +1145,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-1.048939770924016</v>
+        <v>1.274888691675645</v>
       </c>
       <c r="C39">
-        <v>-0.7676090170057611</v>
+        <v>0.5844651149069309</v>
       </c>
       <c r="D39">
-        <v>0.4389054407221744</v>
+        <v>1.867642171890198</v>
+      </c>
+      <c r="E39">
+        <v>38</v>
       </c>
       <c r="F39">
         <v>2</v>
@@ -1060,13 +1165,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.9903376214674999</v>
+        <v>0.9137543081296312</v>
       </c>
       <c r="C40">
-        <v>-0.7821694210284497</v>
+        <v>1.170979277710421</v>
       </c>
       <c r="D40">
-        <v>0.4243098520586694</v>
+        <v>1.961016575677092</v>
+      </c>
+      <c r="E40">
+        <v>38</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -1077,13 +1185,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-1.154113253737219</v>
+        <v>1.924013367895988</v>
       </c>
       <c r="C41">
-        <v>-0.9870878876105146</v>
+        <v>0.7959980970383285</v>
       </c>
       <c r="D41">
-        <v>0.5980909309516107</v>
+        <v>2.323263069659631</v>
+      </c>
+      <c r="E41">
+        <v>38</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -1094,13 +1205,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.5313420190989535</v>
+        <v>0.2529010493509654</v>
       </c>
       <c r="C42">
-        <v>-0.464296690764057</v>
+        <v>0.4942952549866579</v>
       </c>
       <c r="D42">
-        <v>-0.1451559734318362</v>
+        <v>0.6242559396703981</v>
+      </c>
+      <c r="E42">
+        <v>38</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -1111,13 +1225,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.6904371815544965</v>
+        <v>0.2871862104310933</v>
       </c>
       <c r="C43">
-        <v>-0.5016049924333167</v>
+        <v>0.7130316401203245</v>
       </c>
       <c r="D43">
-        <v>-0.002199890255762671</v>
+        <v>0.9622629774510776</v>
+      </c>
+      <c r="E43">
+        <v>38</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -1128,13 +1245,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-2.10100323696584</v>
+        <v>5.730686684691424</v>
       </c>
       <c r="C44">
-        <v>-2.118732302559054</v>
+        <v>3.609135179118518</v>
       </c>
       <c r="D44">
-        <v>1.665600412754576</v>
+        <v>7.454944832690805</v>
+      </c>
+      <c r="E44">
+        <v>38</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -1145,13 +1265,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.9657324046874345</v>
+        <v>-0.3564837492889342</v>
       </c>
       <c r="C45">
-        <v>-0.6052837427834822</v>
+        <v>0.6122090722362192</v>
       </c>
       <c r="D45">
-        <v>0.5681405321073544</v>
+        <v>1.192216724005073</v>
+      </c>
+      <c r="E45">
+        <v>38</v>
       </c>
       <c r="F45">
         <v>2</v>
@@ -1162,13 +1285,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-1.510436410427588</v>
+        <v>-0.8182364874517712</v>
       </c>
       <c r="C46">
-        <v>-0.8975508566674664</v>
+        <v>0.3312818484057719</v>
       </c>
       <c r="D46">
-        <v>1.595816217056247</v>
+        <v>1.841328083233414</v>
+      </c>
+      <c r="E46">
+        <v>38</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -1179,13 +1305,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-1.885074836725571</v>
+        <v>3.135837907363108</v>
       </c>
       <c r="C47">
-        <v>-1.621618050283703</v>
+        <v>3.938524238372471</v>
       </c>
       <c r="D47">
-        <v>1.569961894325898</v>
+        <v>5.957734246388712</v>
+      </c>
+      <c r="E47">
+        <v>38</v>
       </c>
       <c r="F47">
         <v>2</v>
@@ -1196,13 +1325,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-1.173389505078047</v>
+        <v>-0.2056325283702994</v>
       </c>
       <c r="C48">
-        <v>-0.7580665639456106</v>
+        <v>0.647564064442</v>
       </c>
       <c r="D48">
-        <v>0.9118469553681816</v>
+        <v>1.625529520737888</v>
+      </c>
+      <c r="E48">
+        <v>38</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -1213,13 +1345,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-2.644496315854044</v>
+        <v>8.831014596433114</v>
       </c>
       <c r="C49">
-        <v>-2.858319081924616</v>
+        <v>4.640295361365667</v>
       </c>
       <c r="D49">
-        <v>2.163428527919512</v>
+        <v>9.391358607882401</v>
+      </c>
+      <c r="E49">
+        <v>38</v>
       </c>
       <c r="F49">
         <v>2</v>
@@ -1230,13 +1365,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-1.144189919313948</v>
+        <v>2.803299613452563</v>
       </c>
       <c r="C50">
-        <v>-1.197958301566268</v>
+        <v>1.973193744216339</v>
       </c>
       <c r="D50">
-        <v>0.5400872408964568</v>
+        <v>3.380908441183402</v>
+      </c>
+      <c r="E50">
+        <v>38</v>
       </c>
       <c r="F50">
         <v>2</v>
@@ -1247,13 +1385,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.675563977253087</v>
+        <v>1.188446428622461</v>
       </c>
       <c r="C51">
-        <v>-0.6677664644228836</v>
+        <v>0.6642885314367657</v>
       </c>
       <c r="D51">
-        <v>-0.01937606190897639</v>
+        <v>1.264438530804231</v>
+      </c>
+      <c r="E51">
+        <v>38</v>
       </c>
       <c r="F51">
         <v>2</v>
@@ -1264,13 +1405,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-1.10711848490889</v>
+        <v>0.17978019498693</v>
       </c>
       <c r="C52">
-        <v>-0.7641222475339711</v>
+        <v>0.823959897005089</v>
       </c>
       <c r="D52">
-        <v>0.7384502283929413</v>
+        <v>1.732970108773208</v>
+      </c>
+      <c r="E52">
+        <v>38</v>
       </c>
       <c r="F52">
         <v>2</v>
@@ -1281,13 +1425,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-1.382763199461848</v>
+        <v>2.480452077349637</v>
       </c>
       <c r="C53">
-        <v>-1.261519216010859</v>
+        <v>2.441166531221335</v>
       </c>
       <c r="D53">
-        <v>0.8550912505250068</v>
+        <v>4.092551645526731</v>
+      </c>
+      <c r="E53">
+        <v>38</v>
       </c>
       <c r="F53">
         <v>2</v>
@@ -1298,13 +1445,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.9056177008728941</v>
+        <v>0.4754626853512892</v>
       </c>
       <c r="C54">
-        <v>-0.6756858891448303</v>
+        <v>1.090600467022044</v>
       </c>
       <c r="D54">
-        <v>0.3352974342042725</v>
+        <v>1.630393047443581</v>
+      </c>
+      <c r="E54">
+        <v>38</v>
       </c>
       <c r="F54">
         <v>2</v>
@@ -1315,13 +1465,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-1.019394483339052</v>
+        <v>-0.7124154057887578</v>
       </c>
       <c r="C55">
-        <v>-0.5944794141409155</v>
+        <v>0.4404310672098069</v>
       </c>
       <c r="D55">
-        <v>0.7154147969896274</v>
+        <v>1.074243903303158</v>
+      </c>
+      <c r="E55">
+        <v>39</v>
       </c>
       <c r="F55">
         <v>2</v>
@@ -1332,16 +1485,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.5273888657836012</v>
+        <v>1.018952176483568</v>
       </c>
       <c r="C56">
-        <v>-0.5314697121889794</v>
+        <v>0.06933596157597527</v>
       </c>
       <c r="D56">
-        <v>-0.2323601878386594</v>
+        <v>0.5865417070310059</v>
+      </c>
+      <c r="E56">
+        <v>39</v>
       </c>
       <c r="F56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1349,16 +1505,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.6834799472639124</v>
+        <v>0.5993333595663505</v>
       </c>
       <c r="C57">
-        <v>-0.505618712348803</v>
+        <v>-0.0150776723972626</v>
       </c>
       <c r="D57">
-        <v>-0.02342711821150262</v>
+        <v>0.5964460675751466</v>
+      </c>
+      <c r="E57">
+        <v>39</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1366,16 +1525,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.5714460838929118</v>
+        <v>1.146405564838497</v>
       </c>
       <c r="C58">
-        <v>-0.5790760400016429</v>
+        <v>0.2053258031931441</v>
       </c>
       <c r="D58">
-        <v>-0.1771853715004368</v>
+        <v>0.7861393308990341</v>
+      </c>
+      <c r="E58">
+        <v>39</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1383,13 +1545,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C59">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D59">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E59">
+        <v>39</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -1400,16 +1565,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.411220668597224</v>
+        <v>0.4237260984928922</v>
       </c>
       <c r="C60">
-        <v>-0.3821284975469027</v>
+        <v>-0.1516505182662475</v>
       </c>
       <c r="D60">
-        <v>-0.3504249599383119</v>
+        <v>0.06685278759606128</v>
+      </c>
+      <c r="E60">
+        <v>39</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1417,16 +1585,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.6155033020022223</v>
+        <v>1.273858953193424</v>
       </c>
       <c r="C61">
-        <v>-0.6266823678143064</v>
+        <v>0.341315644810313</v>
       </c>
       <c r="D61">
-        <v>-0.1220105551622143</v>
+        <v>0.9857369547670625</v>
+      </c>
+      <c r="E61">
+        <v>39</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1434,16 +1605,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.5113854086420471</v>
+        <v>1.23181808940946</v>
       </c>
       <c r="C62">
-        <v>-0.5379919433930658</v>
+        <v>-0.1176470834333085</v>
       </c>
       <c r="D62">
-        <v>-0.2798198647536747</v>
+        <v>0.5074377548618658</v>
+      </c>
+      <c r="E62">
+        <v>39</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1451,13 +1625,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-1.558179231233064</v>
+        <v>4.556654589006248</v>
       </c>
       <c r="C63">
-        <v>-1.598557026952356</v>
+        <v>2.392078651019156</v>
       </c>
       <c r="D63">
-        <v>0.9011970491908332</v>
+        <v>4.808459897919215</v>
+      </c>
+      <c r="E63">
+        <v>39</v>
       </c>
       <c r="F63">
         <v>2</v>
@@ -1468,13 +1645,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-1.091865498703046</v>
+        <v>1.404697973739605</v>
       </c>
       <c r="C64">
-        <v>-0.899660159634076</v>
+        <v>1.294054717837967</v>
       </c>
       <c r="D64">
-        <v>0.4773625887956348</v>
+        <v>2.639287805235883</v>
+      </c>
+      <c r="E64">
+        <v>39</v>
       </c>
       <c r="F64">
         <v>2</v>
@@ -1485,16 +1665,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.4552778867065345</v>
+        <v>0.5511794868478204</v>
       </c>
       <c r="C65">
-        <v>-0.4297348253595661</v>
+        <v>-0.01566067664907861</v>
       </c>
       <c r="D65">
-        <v>-0.2952501436000893</v>
+        <v>0.2664504114640895</v>
+      </c>
+      <c r="E65">
+        <v>39</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1502,13 +1685,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.8798466106580853</v>
+        <v>2.038579283322993</v>
       </c>
       <c r="C66">
-        <v>-0.9123203346902873</v>
+        <v>1.157254694513326</v>
       </c>
       <c r="D66">
-        <v>0.2090383428671213</v>
+        <v>2.183322697975232</v>
+      </c>
+      <c r="E66">
+        <v>39</v>
       </c>
       <c r="F66">
         <v>2</v>
@@ -1519,13 +1705,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.6635136734268852</v>
+        <v>0.6352612144157498</v>
       </c>
       <c r="C67">
-        <v>-0.6071156742020475</v>
+        <v>0.9022647798381644</v>
       </c>
       <c r="D67">
-        <v>0.02036847558283161</v>
+        <v>1.223048811274483</v>
+      </c>
+      <c r="E67">
+        <v>39</v>
       </c>
       <c r="F67">
         <v>2</v>
@@ -1536,13 +1725,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.5753992372082641</v>
+        <v>0.3803544377058935</v>
       </c>
       <c r="C68">
-        <v>-0.5119030185767205</v>
+        <v>0.6302850966038267</v>
       </c>
       <c r="D68">
-        <v>-0.08998115709361354</v>
+        <v>0.8238535635384263</v>
+      </c>
+      <c r="E68">
+        <v>39</v>
       </c>
       <c r="F68">
         <v>2</v>
@@ -1553,13 +1745,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-1.44026442670388</v>
+        <v>0.6834708454305208</v>
       </c>
       <c r="C69">
-        <v>-0.8699591345780067</v>
+        <v>1.803916325547282</v>
       </c>
       <c r="D69">
-        <v>1.041654116221818</v>
+        <v>2.905683460433455</v>
+      </c>
+      <c r="E69">
+        <v>39</v>
       </c>
       <c r="F69">
         <v>2</v>
@@ -1570,13 +1765,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-1.725495208321244</v>
+        <v>-2.363355149803484</v>
       </c>
       <c r="C70">
-        <v>-0.8604035371764547</v>
+        <v>0.1818327251559185</v>
       </c>
       <c r="D70">
-        <v>2.178272674195791</v>
+        <v>1.66404893263249</v>
+      </c>
+      <c r="E70">
+        <v>39</v>
       </c>
       <c r="F70">
         <v>2</v>
@@ -1587,13 +1785,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-1.317994369653296</v>
+        <v>1.697776591195749</v>
       </c>
       <c r="C71">
-        <v>-0.9030881942848343</v>
+        <v>1.481092579994914</v>
       </c>
       <c r="D71">
-        <v>0.8463528310013289</v>
+        <v>2.673137001168794</v>
+      </c>
+      <c r="E71">
+        <v>39</v>
       </c>
       <c r="F71">
         <v>2</v>
@@ -1604,13 +1805,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.4432275828803325</v>
+        <v>-0.00200572735889093</v>
       </c>
       <c r="C72">
-        <v>-0.36908403513873</v>
+        <v>0.2223155717523201</v>
       </c>
       <c r="D72">
-        <v>-0.2555056061082813</v>
+        <v>0.2250606919343415</v>
+      </c>
+      <c r="E72">
+        <v>39</v>
       </c>
       <c r="F72">
         <v>2</v>
@@ -1621,16 +1825,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.3391096895201572</v>
+        <v>-0.04404659114285564</v>
       </c>
       <c r="C73">
-        <v>-0.2803936107174894</v>
+        <v>-0.2366471564913014</v>
       </c>
       <c r="D73">
-        <v>-0.4133149156997418</v>
+        <v>-0.2532385079708551</v>
+      </c>
+      <c r="E73">
+        <v>39</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1638,13 +1845,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-1.012018264986017</v>
+        <v>2.420939448387778</v>
       </c>
       <c r="C74">
-        <v>-1.055139318128278</v>
+        <v>1.565224219364833</v>
       </c>
       <c r="D74">
-        <v>0.3745627918817891</v>
+        <v>2.782115569579317</v>
+      </c>
+      <c r="E74">
+        <v>39</v>
       </c>
       <c r="F74">
         <v>2</v>
@@ -1655,16 +1865,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.969013908437425</v>
+        <v>2.301779805469559</v>
       </c>
       <c r="C75">
-        <v>-0.8989130608810607</v>
+        <v>0.5188186668172519</v>
       </c>
       <c r="D75">
-        <v>0.2364086886097815</v>
+        <v>1.94011685301206</v>
+      </c>
+      <c r="E75">
+        <v>39</v>
       </c>
       <c r="F75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1672,13 +1885,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.4872848009896431</v>
+        <v>0.1254476609960372</v>
       </c>
       <c r="C76">
-        <v>-0.4166903629513935</v>
+        <v>0.358305413369489</v>
       </c>
       <c r="D76">
-        <v>-0.2003307897700587</v>
+        <v>0.4246583158023698</v>
+      </c>
+      <c r="E76">
+        <v>39</v>
       </c>
       <c r="F76">
         <v>2</v>
@@ -1689,13 +1905,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-2.38248923074987</v>
+        <v>6.953127491605575</v>
       </c>
       <c r="C77">
-        <v>-2.479800577737657</v>
+        <v>4.635595901856375</v>
       </c>
       <c r="D77">
-        <v>1.944843299212452</v>
+        <v>8.361609047874316</v>
+      </c>
+      <c r="E77">
+        <v>39</v>
       </c>
       <c r="F77">
         <v>2</v>
@@ -1706,13 +1925,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-1.304415334609636</v>
+        <v>3.525979079798167</v>
       </c>
       <c r="C78">
-        <v>-1.394905844021008</v>
+        <v>2.330170065675731</v>
       </c>
       <c r="D78">
-        <v>0.713326829334332</v>
+        <v>4.100194984486374</v>
+      </c>
+      <c r="E78">
+        <v>39</v>
       </c>
       <c r="F78">
         <v>2</v>
@@ -1723,13 +1945,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C79">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D79">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E79">
+        <v>39</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -1740,16 +1965,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.587449541034466</v>
+        <v>0.9335396519126048</v>
       </c>
       <c r="C80">
-        <v>-0.5725538087975566</v>
+        <v>0.392308848202428</v>
       </c>
       <c r="D80">
-        <v>-0.1297256945854215</v>
+        <v>0.8652432830681744</v>
+      </c>
+      <c r="E80">
+        <v>39</v>
       </c>
       <c r="F80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1757,13 +1985,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.9839645040182607</v>
+        <v>2.080620147106958</v>
       </c>
       <c r="C81">
-        <v>-1.001010759111528</v>
+        <v>1.616217422756948</v>
       </c>
       <c r="D81">
-        <v>0.3668476524585818</v>
+        <v>2.661621897880429</v>
+      </c>
+      <c r="E81">
+        <v>39</v>
       </c>
       <c r="F81">
         <v>2</v>
@@ -1774,13 +2005,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-1.547704597288868</v>
+        <v>-0.3240134069598717</v>
       </c>
       <c r="C82">
-        <v>-0.9676989369967145</v>
+        <v>0.08406994493102055</v>
       </c>
       <c r="D82">
-        <v>1.608316603750374</v>
+        <v>1.903782268096353</v>
+      </c>
+      <c r="E82">
+        <v>39</v>
       </c>
       <c r="F82">
         <v>2</v>
@@ -1791,13 +2025,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-1.200776571227115</v>
+        <v>2.210420874113158</v>
       </c>
       <c r="C83">
-        <v>-1.091069754068841</v>
+        <v>1.965941003009717</v>
       </c>
       <c r="D83">
-        <v>0.5932778859069257</v>
+        <v>3.210636478251281</v>
+      </c>
+      <c r="E83">
+        <v>39</v>
       </c>
       <c r="F83">
         <v>2</v>
@@ -1808,16 +2045,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-1.32851594226204</v>
+        <v>4.632349508211589</v>
       </c>
       <c r="C84">
-        <v>-1.516207424462681</v>
+        <v>1.854217568872934</v>
       </c>
       <c r="D84">
-        <v>0.6338377543507159</v>
+        <v>4.18297442354587</v>
+      </c>
+      <c r="E84">
+        <v>39</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -1825,13 +2065,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-1.452590446079122</v>
+        <v>3.695473331937059</v>
       </c>
       <c r="C85">
-        <v>-1.531202596254913</v>
+        <v>2.925122635536522</v>
       </c>
       <c r="D85">
-        <v>0.926310955264015</v>
+        <v>4.7780918082596</v>
+      </c>
+      <c r="E85">
+        <v>39</v>
       </c>
       <c r="F85">
         <v>2</v>
@@ -1842,13 +2085,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.4432275828803325</v>
+        <v>-0.00200572735889093</v>
       </c>
       <c r="C86">
-        <v>-0.36908403513873</v>
+        <v>0.2223155717523201</v>
       </c>
       <c r="D86">
-        <v>-0.2555056061082813</v>
+        <v>0.2250606919343415</v>
+      </c>
+      <c r="E86">
+        <v>39</v>
       </c>
       <c r="F86">
         <v>2</v>
@@ -1859,13 +2105,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-4.165785608344258</v>
+        <v>10.32847996860995</v>
       </c>
       <c r="C87">
-        <v>-3.570569696320113</v>
+        <v>6.244426703005252</v>
       </c>
       <c r="D87">
-        <v>4.150359668522839</v>
+        <v>12.8294911607214</v>
+      </c>
+      <c r="E87">
+        <v>39</v>
       </c>
       <c r="F87">
         <v>2</v>
@@ -1876,13 +2125,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C88">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D88">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E88">
+        <v>39</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -1893,13 +2145,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.8837997639734376</v>
+        <v>1.272528156190391</v>
       </c>
       <c r="C89">
-        <v>-0.8451473132653649</v>
+        <v>1.582213987924009</v>
       </c>
       <c r="D89">
-        <v>0.2962425572739446</v>
+        <v>2.221036930614624</v>
+      </c>
+      <c r="E89">
+        <v>39</v>
       </c>
       <c r="F89">
         <v>2</v>
@@ -1910,13 +2165,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.7356246525039518</v>
+        <v>1.103033904051498</v>
       </c>
       <c r="C90">
-        <v>-0.7088505610314607</v>
+        <v>0.9872614180632184</v>
       </c>
       <c r="D90">
-        <v>0.08325843134426147</v>
+        <v>1.543140106841399</v>
+      </c>
+      <c r="E90">
+        <v>39</v>
       </c>
       <c r="F90">
         <v>2</v>
@@ -1927,13 +2185,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.4432275828803325</v>
+        <v>-0.00200572735889093</v>
       </c>
       <c r="C91">
-        <v>-0.36908403513873</v>
+        <v>0.2223155717523201</v>
       </c>
       <c r="D91">
-        <v>-0.2555056061082813</v>
+        <v>0.2250606919343415</v>
+      </c>
+      <c r="E91">
+        <v>39</v>
       </c>
       <c r="F91">
         <v>2</v>
@@ -1944,16 +2205,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-1.152287069824798</v>
+        <v>4.122535954791877</v>
       </c>
       <c r="C92">
-        <v>-1.325782113212027</v>
+        <v>1.310258202404258</v>
       </c>
       <c r="D92">
-        <v>0.4131384889978256</v>
+        <v>3.384583928073758</v>
+      </c>
+      <c r="E92">
+        <v>40</v>
       </c>
       <c r="F92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -1961,13 +2225,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.7075708915361956</v>
+        <v>0.762714602770678</v>
       </c>
       <c r="C93">
-        <v>-0.654722002014711</v>
+        <v>1.038254621455333</v>
       </c>
       <c r="D93">
-        <v>0.07554329192105419</v>
+        <v>1.422646435142511</v>
+      </c>
+      <c r="E93">
+        <v>40</v>
       </c>
       <c r="F93">
         <v>2</v>
@@ -1978,16 +2245,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.3831669076294678</v>
+        <v>0.0834067972120725</v>
       </c>
       <c r="C94">
-        <v>-0.3279999385301529</v>
+        <v>-0.1006573148741325</v>
       </c>
       <c r="D94">
-        <v>-0.3581400993615192</v>
+        <v>-0.05364088410282686</v>
+      </c>
+      <c r="E94">
+        <v>40</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -1995,13 +2265,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-2.111032986453407</v>
+        <v>6.029589871122026</v>
       </c>
       <c r="C95">
-        <v>-2.178934530391546</v>
+        <v>4.015105914313219</v>
       </c>
       <c r="D95">
-        <v>1.613362897594358</v>
+        <v>7.223818163613195</v>
+      </c>
+      <c r="E95">
+        <v>40</v>
       </c>
       <c r="F95">
         <v>2</v>
@@ -2012,16 +2285,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.6396039096546262</v>
+        <v>2.380229381606847</v>
       </c>
       <c r="C96">
-        <v>-0.7479839482559786</v>
+        <v>-0.1346368519924845</v>
       </c>
       <c r="D96">
-        <v>-0.2014996301458302</v>
+        <v>1.068516393826558</v>
+      </c>
+      <c r="E96">
+        <v>40</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2029,13 +2305,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-3.327094214322567</v>
+        <v>10.15488607125746</v>
       </c>
       <c r="C97">
-        <v>-3.651969944828451</v>
+        <v>8.160743486654818</v>
       </c>
       <c r="D97">
-        <v>3.164164166485747</v>
+        <v>13.24397144977628</v>
+      </c>
+      <c r="E97">
+        <v>40</v>
       </c>
       <c r="F97">
         <v>2</v>
@@ -2046,13 +2325,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-2.245620372046711</v>
+        <v>5.989634322325766</v>
       </c>
       <c r="C98">
-        <v>-2.388116496882855</v>
+        <v>5.372939784645562</v>
       </c>
       <c r="D98">
-        <v>1.919457649352022</v>
+        <v>8.370849037884108</v>
+      </c>
+      <c r="E98">
+        <v>40</v>
       </c>
       <c r="F98">
         <v>2</v>
@@ -2063,13 +2345,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-1.302112615218288</v>
+        <v>1.106646392832231</v>
       </c>
       <c r="C99">
-        <v>-1.023642666611819</v>
+        <v>1.665296998159823</v>
       </c>
       <c r="D99">
-        <v>0.9258255849109571</v>
+        <v>2.872628572315104</v>
+      </c>
+      <c r="E99">
+        <v>40</v>
       </c>
       <c r="F99">
         <v>2</v>
@@ -2080,13 +2365,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-2.42164828233501</v>
+        <v>-0.9295887652698697</v>
       </c>
       <c r="C100">
-        <v>-1.50138278076042</v>
+        <v>1.021721564453665</v>
       </c>
       <c r="D100">
-        <v>3.180503967918101</v>
+        <v>3.839099394394132</v>
+      </c>
+      <c r="E100">
+        <v>40</v>
       </c>
       <c r="F100">
         <v>2</v>
@@ -2097,13 +2385,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-5.369920548372551</v>
+        <v>18.65621461826278</v>
       </c>
       <c r="C101">
-        <v>-6.097508647502488</v>
+        <v>13.09040511742042</v>
       </c>
       <c r="D101">
-        <v>5.448308214246724</v>
+        <v>22.43281312148629</v>
+      </c>
+      <c r="E101">
+        <v>40</v>
       </c>
       <c r="F101">
         <v>2</v>
@@ -2114,16 +2405,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-0.3391096895201572</v>
+        <v>-0.04404659114285564</v>
       </c>
       <c r="C102">
-        <v>-0.2803936107174894</v>
+        <v>-0.2366471564913014</v>
       </c>
       <c r="D102">
-        <v>-0.4133149156997418</v>
+        <v>-0.2532385079708551</v>
+      </c>
+      <c r="E102">
+        <v>40</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2131,16 +2425,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-1.416630378480661</v>
+        <v>4.887256284921445</v>
       </c>
       <c r="C103">
-        <v>-1.611420080088008</v>
+        <v>2.126197252107271</v>
       </c>
       <c r="D103">
-        <v>0.7441873870271611</v>
+        <v>4.582169671281927</v>
+      </c>
+      <c r="E103">
+        <v>40</v>
       </c>
       <c r="F103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2148,13 +2445,16 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-1.640869622342566</v>
+        <v>4.758472099563483</v>
       </c>
       <c r="C104">
-        <v>-1.782278697726403</v>
+        <v>3.231105753603798</v>
       </c>
       <c r="D104">
-        <v>1.107265683125097</v>
+        <v>5.617872023261461</v>
+      </c>
+      <c r="E104">
+        <v>40</v>
       </c>
       <c r="F104">
         <v>2</v>
@@ -2165,13 +2465,16 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>-1.116136158346192</v>
+        <v>2.462980312171743</v>
       </c>
       <c r="C105">
-        <v>-1.143829742549518</v>
+        <v>2.024186947608454</v>
       </c>
       <c r="D105">
-        <v>0.5323721014732495</v>
+        <v>3.260414769484513</v>
+      </c>
+      <c r="E105">
+        <v>40</v>
       </c>
       <c r="F105">
         <v>2</v>
@@ -2182,16 +2485,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-0.7437218030148016</v>
+        <v>2.422270245390812</v>
       </c>
       <c r="C106">
-        <v>-0.8366743726772192</v>
+        <v>0.324325876251137</v>
       </c>
       <c r="D106">
-        <v>-0.04369032055436978</v>
+        <v>1.546815593731755</v>
+      </c>
+      <c r="E106">
+        <v>40</v>
       </c>
       <c r="F106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2199,13 +2505,16 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-1.262750485049948</v>
+        <v>1.549575507684168</v>
       </c>
       <c r="C107">
-        <v>-1.033917086071704</v>
+        <v>1.294024640870984</v>
       </c>
       <c r="D107">
-        <v>0.8156681281933624</v>
+        <v>2.708276865587977</v>
+      </c>
+      <c r="E107">
+        <v>40</v>
       </c>
       <c r="F107">
         <v>2</v>
@@ -2216,13 +2525,16 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>-1.594787107616666</v>
+        <v>4.416045601003767</v>
       </c>
       <c r="C108">
-        <v>-1.593879209092692</v>
+        <v>2.033702419944849</v>
       </c>
       <c r="D108">
-        <v>0.9988347653170104</v>
+        <v>4.610505438992609</v>
+      </c>
+      <c r="E108">
+        <v>40</v>
       </c>
       <c r="F108">
         <v>2</v>
@@ -2233,13 +2545,16 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.3551131466617115</v>
+        <v>-0.2569125040687472</v>
       </c>
       <c r="C109">
-        <v>-0.2738713795134031</v>
+        <v>-0.0496641114820176</v>
       </c>
       <c r="D109">
-        <v>-0.3658552387847265</v>
+        <v>-0.174134555801715</v>
+      </c>
+      <c r="E109">
+        <v>40</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -2250,13 +2565,16 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-1.457892769763499</v>
+        <v>2.015167460817771</v>
       </c>
       <c r="C110">
-        <v>-1.231465364903668</v>
+        <v>1.831057266034644</v>
       </c>
       <c r="D110">
-        <v>1.075551086685703</v>
+        <v>3.522465710059983</v>
+      </c>
+      <c r="E110">
+        <v>40</v>
       </c>
       <c r="F110">
         <v>2</v>
@@ -2267,13 +2585,16 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-3.856336816889591</v>
+        <v>13.00712826738157</v>
       </c>
       <c r="C111">
-        <v>-4.238691660280161</v>
+        <v>8.03453684938825</v>
       </c>
       <c r="D111">
-        <v>3.588889804357834</v>
+        <v>15.27807908086302</v>
+      </c>
+      <c r="E111">
+        <v>40</v>
       </c>
       <c r="F111">
         <v>2</v>
@@ -2284,16 +2605,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-1.028664100401106</v>
+        <v>2.337759317251016</v>
       </c>
       <c r="C112">
-        <v>-0.9339271624103833</v>
+        <v>0.3041286565879086</v>
       </c>
       <c r="D112">
-        <v>0.3456837842525693</v>
+        <v>1.924206296842491</v>
+      </c>
+      <c r="E112">
+        <v>40</v>
       </c>
       <c r="F112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2301,13 +2625,16 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-0.4712813438480888</v>
+        <v>0.3383135739219288</v>
       </c>
       <c r="C113">
-        <v>-0.4232125941554798</v>
+        <v>0.1713223683602052</v>
       </c>
       <c r="D113">
-        <v>-0.247790466685074</v>
+        <v>0.3455543636332297</v>
+      </c>
+      <c r="E113">
+        <v>40</v>
       </c>
       <c r="F113">
         <v>2</v>
@@ -2318,13 +2645,16 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-1.545970058935809</v>
+        <v>1.573023186497063</v>
       </c>
       <c r="C114">
-        <v>-1.231966743074441</v>
+        <v>1.73511588465846</v>
       </c>
       <c r="D114">
-        <v>1.146981827352476</v>
+        <v>4.474285616701506</v>
+      </c>
+      <c r="E114">
+        <v>40</v>
       </c>
       <c r="F114">
         <v>2</v>
@@ -2335,13 +2665,16 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C115">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D115">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E115">
+        <v>40</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -2352,16 +2685,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-0.399170364771022</v>
+        <v>-0.1294591157138191</v>
       </c>
       <c r="C116">
-        <v>-0.3214777073260666</v>
+        <v>0.08632573013515127</v>
       </c>
       <c r="D116">
-        <v>-0.310680422446504</v>
+        <v>0.02546306806631327</v>
+      </c>
+      <c r="E116">
+        <v>40</v>
       </c>
       <c r="F116">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2369,13 +2705,16 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-0.6817889402981734</v>
+        <v>0.4828548343568314</v>
       </c>
       <c r="C117">
-        <v>-0.5108972665856898</v>
+        <v>0.5233548623813127</v>
       </c>
       <c r="D117">
-        <v>-0.03442146428321374</v>
+        <v>0.8893028276707846</v>
+      </c>
+      <c r="E117">
+        <v>40</v>
       </c>
       <c r="F117">
         <v>2</v>
@@ -2386,13 +2725,16 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>-0.8355221546841842</v>
+        <v>-0.09940360167246298</v>
       </c>
       <c r="C118">
-        <v>-0.4870122142926768</v>
+        <v>0.665624553844627</v>
       </c>
       <c r="D118">
-        <v>0.2434878604246465</v>
+        <v>1.140642653213394</v>
+      </c>
+      <c r="E118">
+        <v>40</v>
       </c>
       <c r="F118">
         <v>2</v>
@@ -2403,13 +2745,16 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>-1.740502309107262</v>
+        <v>-0.0642522329555264</v>
       </c>
       <c r="C119">
-        <v>-1.017984742431478</v>
+        <v>0.7310342381579868</v>
       </c>
       <c r="D119">
-        <v>1.432545489299446</v>
+        <v>3.537034938716083</v>
+      </c>
+      <c r="E119">
+        <v>40</v>
       </c>
       <c r="F119">
         <v>2</v>
@@ -2420,13 +2765,16 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-1.670844133415225</v>
+        <v>0.2323523990481536</v>
       </c>
       <c r="C120">
-        <v>-1.080841346197719</v>
+        <v>0.9489067784518797</v>
       </c>
       <c r="D120">
-        <v>1.403501699702074</v>
+        <v>3.867032919367269</v>
+      </c>
+      <c r="E120">
+        <v>40</v>
       </c>
       <c r="F120">
         <v>2</v>
@@ -2437,13 +2785,16 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-0.7597663112625608</v>
+        <v>-0.3908564449980503</v>
       </c>
       <c r="C121">
-        <v>-0.447222367384467</v>
+        <v>0.03842154525186325</v>
       </c>
       <c r="D121">
-        <v>0.2354284549182385</v>
+        <v>0.4660471671766203</v>
+      </c>
+      <c r="E121">
+        <v>40</v>
       </c>
       <c r="F121">
         <v>2</v>
@@ -2454,13 +2805,16 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-0.8426270218488741</v>
+        <v>-0.1236658904309418</v>
       </c>
       <c r="C122">
-        <v>-0.5404564209038747</v>
+        <v>0.3123253232931495</v>
       </c>
       <c r="D122">
-        <v>0.3348937283892806</v>
+        <v>0.8608539846349288</v>
+      </c>
+      <c r="E122">
+        <v>40</v>
       </c>
       <c r="F122">
         <v>2</v>
@@ -2471,13 +2825,16 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>-1.150679977920002</v>
+        <v>1.765869448612446</v>
       </c>
       <c r="C123">
-        <v>-1.006899714122888</v>
+        <v>1.221608991106053</v>
       </c>
       <c r="D123">
-        <v>0.5778326818953629</v>
+        <v>3.147289288379726</v>
+      </c>
+      <c r="E123">
+        <v>40</v>
       </c>
       <c r="F123">
         <v>2</v>
@@ -2488,13 +2845,16 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>-1.25991460711727</v>
+        <v>1.150294072688536</v>
       </c>
       <c r="C124">
-        <v>-0.9892858171633667</v>
+        <v>1.335782189189745</v>
       </c>
       <c r="D124">
-        <v>0.8601979129560895</v>
+        <v>2.608847659222279</v>
+      </c>
+      <c r="E124">
+        <v>41</v>
       </c>
       <c r="F124">
         <v>2</v>
@@ -2505,13 +2865,16 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>-2.287252780677691</v>
+        <v>5.513026794283984</v>
       </c>
       <c r="C125">
-        <v>-2.260440861889205</v>
+        <v>4.687292225260943</v>
       </c>
       <c r="D125">
-        <v>1.959560579236869</v>
+        <v>8.117934583700354</v>
+      </c>
+      <c r="E125">
+        <v>41</v>
       </c>
       <c r="F125">
         <v>2</v>
@@ -2522,13 +2885,16 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>-1.030535812101936</v>
+        <v>2.092518488974725</v>
       </c>
       <c r="C126">
-        <v>-0.9464628729900763</v>
+        <v>1.379069631338111</v>
       </c>
       <c r="D126">
-        <v>0.33457945131455</v>
+        <v>2.514308247311515</v>
+      </c>
+      <c r="E126">
+        <v>41</v>
       </c>
       <c r="F126">
         <v>2</v>
@@ -2539,13 +2905,16 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>-1.110884549148141</v>
+        <v>2.486014591037155</v>
       </c>
       <c r="C127">
-        <v>-1.032835490587862</v>
+        <v>1.11608015044638</v>
       </c>
       <c r="D127">
-        <v>0.436331583492981</v>
+        <v>2.612747560451987</v>
+      </c>
+      <c r="E127">
+        <v>41</v>
       </c>
       <c r="F127">
         <v>2</v>
@@ -2556,16 +2925,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>-0.399170364771022</v>
+        <v>-0.1294591157138191</v>
       </c>
       <c r="C128">
-        <v>-0.3214777073260666</v>
+        <v>0.08632573013515127</v>
       </c>
       <c r="D128">
-        <v>-0.310680422446504</v>
+        <v>0.02546306806631327</v>
+      </c>
+      <c r="E128">
+        <v>41</v>
       </c>
       <c r="F128">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2573,13 +2945,16 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>-1.634275544460084</v>
+        <v>3.993548513669795</v>
       </c>
       <c r="C129">
-        <v>-1.589650225094474</v>
+        <v>2.61324623146581</v>
       </c>
       <c r="D129">
-        <v>1.097390680920635</v>
+        <v>5.21819429960594</v>
+      </c>
+      <c r="E129">
+        <v>41</v>
       </c>
       <c r="F129">
         <v>2</v>
@@ -2590,13 +2965,16 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>-0.6475102162853308</v>
+        <v>0.8481271273416414</v>
       </c>
       <c r="C130">
-        <v>-0.6136379054061337</v>
+        <v>0.7152817348288807</v>
       </c>
       <c r="D130">
-        <v>-0.02709120133218368</v>
+        <v>1.143944859105343</v>
+      </c>
+      <c r="E130">
+        <v>41</v>
       </c>
       <c r="F130">
         <v>2</v>
@@ -2607,16 +2985,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>-0.7036177382208433</v>
+        <v>1.528765729903281</v>
       </c>
       <c r="C131">
-        <v>-0.7218950234396333</v>
+        <v>0.6132953280446507</v>
       </c>
       <c r="D131">
-        <v>-0.01166092248576911</v>
+        <v>1.384932202503119</v>
+      </c>
+      <c r="E131">
+        <v>41</v>
       </c>
       <c r="F131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2624,13 +3005,16 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>-2.305298449374045</v>
+        <v>6.915494011197139</v>
       </c>
       <c r="C132">
-        <v>-2.360543881662816</v>
+        <v>3.955107099013826</v>
       </c>
       <c r="D132">
-        <v>1.802150464956923</v>
+        <v>7.904559200353309</v>
+      </c>
+      <c r="E132">
+        <v>41</v>
       </c>
       <c r="F132">
         <v>2</v>
@@ -2641,16 +3025,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-0.6556073667961806</v>
+        <v>2.167363468680955</v>
       </c>
       <c r="C133">
-        <v>-0.7414617170518922</v>
+        <v>0.05234619301679927</v>
       </c>
       <c r="D133">
-        <v>-0.154039953230815</v>
+        <v>1.147620345995699</v>
+      </c>
+      <c r="E133">
+        <v>41</v>
       </c>
       <c r="F133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -2658,16 +3045,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-0.4833316476742908</v>
+        <v>0.8914987881286399</v>
       </c>
       <c r="C134">
-        <v>-0.4838633843763159</v>
+        <v>-0.0666538800411936</v>
       </c>
       <c r="D134">
-        <v>-0.287535004176882</v>
+        <v>0.3869440831629777</v>
+      </c>
+      <c r="E134">
+        <v>41</v>
       </c>
       <c r="F134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -2675,13 +3065,16 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>-1.619383326430372</v>
+        <v>1.496248892769746</v>
       </c>
       <c r="C135">
-        <v>-1.288756812896714</v>
+        <v>2.031710984585033</v>
       </c>
       <c r="D135">
-        <v>1.393817377957635</v>
+        <v>4.004631670689253</v>
+      </c>
+      <c r="E135">
+        <v>41</v>
       </c>
       <c r="F135">
         <v>2</v>
@@ -2692,13 +3085,16 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>-1.08302542420235</v>
+        <v>0.00564845077444287</v>
       </c>
       <c r="C136">
-        <v>-0.7240346077238005</v>
+        <v>0.6806584951215155</v>
       </c>
       <c r="D136">
-        <v>0.72463597703525</v>
+        <v>1.550048519960622</v>
+      </c>
+      <c r="E136">
+        <v>41</v>
       </c>
       <c r="F136">
         <v>2</v>
@@ -2709,13 +3105,16 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-0.5592221465125492</v>
+        <v>-0.3828903755627046</v>
       </c>
       <c r="C137">
-        <v>-0.3096676266924693</v>
+        <v>-0.192382509113775</v>
       </c>
       <c r="D137">
-        <v>-0.1078464647538311</v>
+        <v>-0.02706048850324372</v>
+      </c>
+      <c r="E137">
+        <v>41</v>
       </c>
       <c r="F137">
         <v>2</v>
@@ -2726,13 +3125,16 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>-0.8752001207691833</v>
+        <v>-0.1998253131459068</v>
       </c>
       <c r="C138">
-        <v>-0.5527237539605737</v>
+        <v>0.3003959354900684</v>
       </c>
       <c r="D138">
-        <v>0.4023767554627793</v>
+        <v>0.8880622523569663</v>
+      </c>
+      <c r="E138">
+        <v>41</v>
       </c>
       <c r="F138">
         <v>2</v>
@@ -2743,13 +3145,16 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>-0.6288136051036448</v>
+        <v>-0.7210508226325709</v>
       </c>
       <c r="C139">
-        <v>-0.3233271369687587</v>
+        <v>-0.02502523113536664</v>
       </c>
       <c r="D139">
-        <v>0.05063367605629493</v>
+        <v>0.09680545249892614</v>
+      </c>
+      <c r="E139">
+        <v>41</v>
       </c>
       <c r="F139">
         <v>2</v>
@@ -2760,13 +3165,16 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>-2.218854357914669</v>
+        <v>6.312176820450306</v>
       </c>
       <c r="C140">
-        <v>-2.239179983444816</v>
+        <v>4.070787841321238</v>
       </c>
       <c r="D140">
-        <v>1.720867945001878</v>
+        <v>7.637463015015777</v>
+      </c>
+      <c r="E140">
+        <v>41</v>
       </c>
       <c r="F140">
         <v>2</v>
@@ -2777,13 +3185,16 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>-1.06002863641068</v>
+        <v>1.782341709610103</v>
       </c>
       <c r="C141">
-        <v>-1.035572624516019</v>
+        <v>2.126173354392684</v>
       </c>
       <c r="D141">
-        <v>0.516941822626835</v>
+        <v>3.019427426086737</v>
+      </c>
+      <c r="E141">
+        <v>41</v>
       </c>
       <c r="F141">
         <v>2</v>
@@ -2794,13 +3205,16 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>-1.428347601517161</v>
+        <v>1.40244857543917</v>
       </c>
       <c r="C142">
-        <v>-1.11963341726557</v>
+        <v>1.814193520079331</v>
       </c>
       <c r="D142">
-        <v>1.001232261298717</v>
+        <v>3.925896724912425</v>
+      </c>
+      <c r="E142">
+        <v>41</v>
       </c>
       <c r="F142">
         <v>2</v>
@@ -2811,13 +3225,16 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>-2.13130822116929</v>
+        <v>5.085256667379223</v>
       </c>
       <c r="C143">
-        <v>-2.054782089323326</v>
+        <v>3.126069666772957</v>
       </c>
       <c r="D143">
-        <v>1.73942418903583</v>
+        <v>7.400166621303644</v>
+      </c>
+      <c r="E143">
+        <v>41</v>
       </c>
       <c r="F143">
         <v>2</v>
@@ -2828,13 +3245,16 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>-2.261623829188265</v>
+        <v>5.776768409399875</v>
       </c>
       <c r="C144">
-        <v>-2.381594265678769</v>
+        <v>5.559922829654846</v>
       </c>
       <c r="D144">
-        <v>1.966917326267037</v>
+        <v>8.44995299005325</v>
+      </c>
+      <c r="E144">
+        <v>41</v>
       </c>
       <c r="F144">
         <v>2</v>
@@ -2845,13 +3265,16 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>-1.776363831526693</v>
+        <v>5.198835041923791</v>
       </c>
       <c r="C145">
-        <v>-1.835797225173305</v>
+        <v>3.07279749702778</v>
       </c>
       <c r="D145">
-        <v>1.172717387199785</v>
+        <v>5.804692645148257</v>
+      </c>
+      <c r="E145">
+        <v>41</v>
       </c>
       <c r="F145">
         <v>2</v>
@@ -2862,13 +3285,16 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>-3.811901479947658</v>
+        <v>12.55448507137248</v>
       </c>
       <c r="C146">
-        <v>-4.166365874144612</v>
+        <v>8.472254521213948</v>
       </c>
       <c r="D146">
-        <v>3.571180459401667</v>
+        <v>14.92479785468757</v>
+      </c>
+      <c r="E146">
+        <v>41</v>
       </c>
       <c r="F146">
         <v>2</v>
@@ -2879,13 +3305,16 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>-1.161636672665005</v>
+        <v>1.961438621897549</v>
       </c>
       <c r="C147">
-        <v>-1.0083859631599</v>
+        <v>1.138211931734267</v>
       </c>
       <c r="D147">
-        <v>0.5918818321508186</v>
+        <v>2.558080342919319</v>
+      </c>
+      <c r="E147">
+        <v>41</v>
       </c>
       <c r="F147">
         <v>2</v>
@@ -2896,13 +3325,16 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>-1.39648292414361</v>
+        <v>3.01483472937542</v>
       </c>
       <c r="C148">
-        <v>-1.422945478221413</v>
+        <v>3.027109042320752</v>
       </c>
       <c r="D148">
-        <v>0.9108806764176003</v>
+        <v>4.537104464861823</v>
+      </c>
+      <c r="E148">
+        <v>41</v>
       </c>
       <c r="F148">
         <v>2</v>
@@ -2913,13 +3345,16 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>-2.638500003033707</v>
+        <v>6.847782293490366</v>
       </c>
       <c r="C149">
-        <v>-2.613929087548886</v>
+        <v>5.529478334712095</v>
       </c>
       <c r="D149">
-        <v>2.318811508853504</v>
+        <v>9.41895575139835</v>
+      </c>
+      <c r="E149">
+        <v>41</v>
       </c>
       <c r="F149">
         <v>2</v>
@@ -2930,13 +3365,16 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>-1.496647664188433</v>
+        <v>3.822926720291988</v>
       </c>
       <c r="C150">
-        <v>-1.578808924067576</v>
+        <v>3.06111247715369</v>
       </c>
       <c r="D150">
-        <v>0.9814857716022376</v>
+        <v>4.977689432127628</v>
+      </c>
+      <c r="E150">
+        <v>41</v>
       </c>
       <c r="F150">
         <v>2</v>
@@ -2947,16 +3385,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>-1.430702664846103</v>
+        <v>4.744676927148329</v>
       </c>
       <c r="C151">
-        <v>-1.513618790786915</v>
+        <v>1.748826610495978</v>
       </c>
       <c r="D151">
-        <v>0.6806899597967933</v>
+        <v>4.24491294345603</v>
+      </c>
+      <c r="E151">
+        <v>41</v>
       </c>
       <c r="F151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -2964,13 +3405,16 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>-1.725203577376688</v>
+        <v>5.115004543753745</v>
       </c>
       <c r="C152">
-        <v>-1.742204905124962</v>
+        <v>1.498718646605638</v>
       </c>
       <c r="D152">
-        <v>1.111075600740389</v>
+        <v>5.189232836516821</v>
+      </c>
+      <c r="E152">
+        <v>41</v>
       </c>
       <c r="F152">
         <v>2</v>
@@ -2981,13 +3425,16 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>-1.180818798165355</v>
+        <v>-0.4534669397263009</v>
       </c>
       <c r="C153">
-        <v>-0.729850536770955</v>
+        <v>0.4927180937167353</v>
       </c>
       <c r="D153">
-        <v>0.9633388592429086</v>
+        <v>1.46893851359179</v>
+      </c>
+      <c r="E153">
+        <v>41</v>
       </c>
       <c r="F153">
         <v>2</v>
@@ -2998,16 +3445,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>-0.7316714991885995</v>
+        <v>1.869085031184101</v>
       </c>
       <c r="C154">
-        <v>-0.7760235824563831</v>
+        <v>0.5623021246525359</v>
       </c>
       <c r="D154">
-        <v>-0.00394578306256177</v>
+        <v>1.505425874202007</v>
+      </c>
+      <c r="E154">
+        <v>41</v>
       </c>
       <c r="F154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3015,16 +3465,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>-0.9920616545291103</v>
+        <v>3.399856488446273</v>
       </c>
       <c r="C155">
-        <v>-1.128834570757286</v>
+        <v>0.9532818809448664</v>
       </c>
       <c r="D155">
-        <v>0.2398989005599504</v>
+        <v>2.665297384770785</v>
+      </c>
+      <c r="E155">
+        <v>42</v>
       </c>
       <c r="F155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3032,13 +3485,16 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>-0.7631143452687642</v>
+        <v>1.104531303203659</v>
       </c>
       <c r="C156">
-        <v>-0.6286516747276015</v>
+        <v>0.4121328005237297</v>
       </c>
       <c r="D156">
-        <v>0.03325373874913518</v>
+        <v>1.151354636401751</v>
+      </c>
+      <c r="E156">
+        <v>42</v>
       </c>
       <c r="F156">
         <v>2</v>
@@ -3049,13 +3505,16 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>-1.166504638705286</v>
+        <v>1.512067069898278</v>
       </c>
       <c r="C157">
-        <v>-0.8604590202417033</v>
+        <v>0.8663313713267846</v>
       </c>
       <c r="D157">
-        <v>0.586246951369459</v>
+        <v>2.285287372495546</v>
+      </c>
+      <c r="E157">
+        <v>42</v>
       </c>
       <c r="F157">
         <v>2</v>
@@ -3066,13 +3525,16 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>-0.5593957800667098</v>
+        <v>0.5932203506317851</v>
       </c>
       <c r="C158">
-        <v>-0.5184252497808068</v>
+        <v>0.443302051594543</v>
       </c>
       <c r="D158">
-        <v>-0.1374408340086288</v>
+        <v>0.7447496113692862</v>
+      </c>
+      <c r="E158">
+        <v>42</v>
       </c>
       <c r="F158">
         <v>2</v>
@@ -3083,13 +3545,16 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>-0.7917321744394643</v>
+        <v>1.783672506613137</v>
       </c>
       <c r="C159">
-        <v>-0.8171076790649603</v>
+        <v>0.8852750112789884</v>
       </c>
       <c r="D159">
-        <v>0.09868871019067615</v>
+        <v>1.784127450239176</v>
+      </c>
+      <c r="E159">
+        <v>42</v>
       </c>
       <c r="F159">
         <v>2</v>
@@ -3100,16 +3565,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>-0.5433923229251556</v>
+        <v>0.8060862635576765</v>
       </c>
       <c r="C160">
-        <v>-0.5249474809848931</v>
+        <v>0.2563190065852591</v>
       </c>
       <c r="D160">
-        <v>-0.1849005109236442</v>
+        <v>0.6656456592001461</v>
+      </c>
+      <c r="E160">
+        <v>42</v>
       </c>
       <c r="F160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3117,13 +3585,16 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>-1.220254051706368</v>
+        <v>2.505021175955708</v>
       </c>
       <c r="C161">
-        <v>-1.232520166970759</v>
+        <v>2.483149675852076</v>
       </c>
       <c r="D161">
-        <v>0.69018141106471</v>
+        <v>3.73871396938971</v>
+      </c>
+      <c r="E161">
+        <v>42</v>
       </c>
       <c r="F161">
         <v>2</v>
@@ -3134,16 +3605,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>-1.008065111670665</v>
+        <v>3.18699057552038</v>
       </c>
       <c r="C162">
-        <v>-1.1223123395532</v>
+        <v>1.14026492595415</v>
       </c>
       <c r="D162">
-        <v>0.2873585774749657</v>
+        <v>2.744401336939925</v>
+      </c>
+      <c r="E162">
+        <v>42</v>
       </c>
       <c r="F162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3151,13 +3625,16 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>-0.6635136734268852</v>
+        <v>0.6352612144157498</v>
       </c>
       <c r="C163">
-        <v>-0.6071156742020475</v>
+        <v>0.9022647798381644</v>
       </c>
       <c r="D163">
-        <v>0.02036847558283161</v>
+        <v>1.223048811274483</v>
+      </c>
+      <c r="E163">
+        <v>42</v>
       </c>
       <c r="F163">
         <v>2</v>
@@ -3168,13 +3645,16 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>-1.778618697919925</v>
+        <v>-1.620723737525779</v>
       </c>
       <c r="C164">
-        <v>-0.9860015265475008</v>
+        <v>0.4259083426815243</v>
       </c>
       <c r="D164">
-        <v>2.165725135830606</v>
+        <v>2.131076688734459</v>
+      </c>
+      <c r="E164">
+        <v>42</v>
       </c>
       <c r="F164">
         <v>2</v>
@@ -3185,13 +3665,16 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>-1.086237226534459</v>
+        <v>1.154602345869202</v>
       </c>
       <c r="C165">
-        <v>-0.8891837383104511</v>
+        <v>1.525607722760458</v>
       </c>
       <c r="D165">
-        <v>0.5438735266953042</v>
+        <v>2.60822667686253</v>
+      </c>
+      <c r="E165">
+        <v>42</v>
       </c>
       <c r="F165">
         <v>2</v>
@@ -3202,13 +3685,16 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>-1.0263592645755</v>
+        <v>-0.09232387072307957</v>
       </c>
       <c r="C166">
-        <v>-0.6716796348569309</v>
+        <v>0.5492864810410232</v>
       </c>
       <c r="D166">
-        <v>0.6433386986040603</v>
+        <v>1.339918663425999</v>
+      </c>
+      <c r="E166">
+        <v>42</v>
       </c>
       <c r="F166">
         <v>2</v>
@@ -3219,16 +3705,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>-1.904340052294642</v>
+        <v>6.523260913475312</v>
       </c>
       <c r="C167">
-        <v>-2.058247267558062</v>
+        <v>2.863052399038474</v>
       </c>
       <c r="D167">
-        <v>1.236231022508823</v>
+        <v>6.299832622777052</v>
+      </c>
+      <c r="E167">
+        <v>42</v>
       </c>
       <c r="F167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3236,13 +3725,16 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>-1.57787253751999</v>
+        <v>3.820017281181768</v>
       </c>
       <c r="C168">
-        <v>-1.488138014560159</v>
+        <v>1.817823589237877</v>
       </c>
       <c r="D168">
-        <v>1.046598876157979</v>
+        <v>4.533005153216871</v>
+      </c>
+      <c r="E168">
+        <v>42</v>
       </c>
       <c r="F168">
         <v>2</v>
@@ -3253,13 +3745,16 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>-1.251044134254718</v>
+        <v>2.03787406368182</v>
       </c>
       <c r="C169">
-        <v>-1.091536301684567</v>
+        <v>1.602562125437344</v>
       </c>
       <c r="D169">
-        <v>0.7192149359671507</v>
+        <v>3.024091938046821</v>
+      </c>
+      <c r="E169">
+        <v>42</v>
       </c>
       <c r="F169">
         <v>2</v>
@@ -3270,13 +3765,16 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>-0.5153385619573994</v>
+        <v>0.4657669622768569</v>
       </c>
       <c r="C170">
-        <v>-0.4708189219681433</v>
+        <v>0.3073122099773741</v>
       </c>
       <c r="D170">
-        <v>-0.1926156503468515</v>
+        <v>0.5451519875012579</v>
+      </c>
+      <c r="E170">
+        <v>42</v>
       </c>
       <c r="F170">
         <v>2</v>
@@ -3287,13 +3785,16 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>-0.5313420190989535</v>
+        <v>0.2529010493509654</v>
       </c>
       <c r="C171">
-        <v>-0.464296690764057</v>
+        <v>0.4942952549866579</v>
       </c>
       <c r="D171">
-        <v>-0.1451559734318362</v>
+        <v>0.6242559396703981</v>
+      </c>
+      <c r="E171">
+        <v>42</v>
       </c>
       <c r="F171">
         <v>2</v>
@@ -3304,13 +3805,16 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>-1.364396502146818</v>
+        <v>2.749715494390276</v>
       </c>
       <c r="C172">
-        <v>-1.276746420265289</v>
+        <v>2.514518197015069</v>
       </c>
       <c r="D172">
-        <v>0.7878546891668488</v>
+        <v>3.998494741056799</v>
+      </c>
+      <c r="E172">
+        <v>42</v>
       </c>
       <c r="F172">
         <v>2</v>
@@ -3321,13 +3825,16 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>-2.93085313231503</v>
+        <v>8.636406776923266</v>
       </c>
       <c r="C173">
-        <v>-2.897616797412149</v>
+        <v>7.649567524502523</v>
       </c>
       <c r="D173">
-        <v>2.827286052868224</v>
+        <v>10.82337414352439</v>
+      </c>
+      <c r="E173">
+        <v>42</v>
       </c>
       <c r="F173">
         <v>2</v>
@@ -3338,13 +3845,16 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>-0.8284204177854431</v>
+        <v>0.943200007318112</v>
       </c>
       <c r="C174">
-        <v>-0.6654797354897241</v>
+        <v>0.4685473481772354</v>
       </c>
       <c r="D174">
-        <v>0.1676416474033419</v>
+        <v>1.448954115563997</v>
+      </c>
+      <c r="E174">
+        <v>42</v>
       </c>
       <c r="F174">
         <v>2</v>
@@ -3355,13 +3865,16 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C175">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D175">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E175">
+        <v>42</v>
       </c>
       <c r="F175">
         <v>1</v>
@@ -3372,13 +3885,16 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C176">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D176">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E176">
+        <v>42</v>
       </c>
       <c r="F176">
         <v>1</v>
@@ -3389,13 +3905,16 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C177">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D177">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E177">
+        <v>42</v>
       </c>
       <c r="F177">
         <v>1</v>
@@ -3406,13 +3925,16 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C178">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D178">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E178">
+        <v>42</v>
       </c>
       <c r="F178">
         <v>1</v>
@@ -3423,13 +3945,16 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C179">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D179">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E179">
+        <v>42</v>
       </c>
       <c r="F179">
         <v>1</v>
@@ -3440,13 +3965,16 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C180">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D180">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E180">
+        <v>42</v>
       </c>
       <c r="F180">
         <v>1</v>
@@ -3457,13 +3985,16 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C181">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D181">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E181">
+        <v>42</v>
       </c>
       <c r="F181">
         <v>1</v>
@@ -3474,13 +4005,16 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C182">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D182">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E182">
+        <v>42</v>
       </c>
       <c r="F182">
         <v>1</v>
@@ -3491,13 +4025,16 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C183">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D183">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E183">
+        <v>42</v>
       </c>
       <c r="F183">
         <v>1</v>
@@ -3508,13 +4045,16 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C184">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D184">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E184">
+        <v>42</v>
       </c>
       <c r="F184">
         <v>1</v>
@@ -3525,13 +4065,16 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C185">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D185">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E185">
+        <v>42</v>
       </c>
       <c r="F185">
         <v>1</v>
@@ -3542,13 +4085,16 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C186">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D186">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E186">
+        <v>42</v>
       </c>
       <c r="F186">
         <v>1</v>
@@ -3559,13 +4105,16 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>-0.9544641327636529</v>
+        <v>1.458558242270645</v>
       </c>
       <c r="C187">
-        <v>-0.8306870669540838</v>
+        <v>1.488367598388745</v>
       </c>
       <c r="D187">
-        <v>0.277788607487604</v>
+        <v>2.256644868858296</v>
+      </c>
+      <c r="E187">
+        <v>43</v>
       </c>
       <c r="F187">
         <v>2</v>
@@ -3576,13 +4125,16 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C188">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D188">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E188">
+        <v>43</v>
       </c>
       <c r="F188">
         <v>1</v>
@@ -3593,13 +4145,16 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C189">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D189">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E189">
+        <v>43</v>
       </c>
       <c r="F189">
         <v>1</v>
@@ -3610,13 +4165,16 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C190">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D190">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E190">
+        <v>43</v>
       </c>
       <c r="F190">
         <v>1</v>
@@ -3627,13 +4185,16 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C191">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D191">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E191">
+        <v>43</v>
       </c>
       <c r="F191">
         <v>1</v>
@@ -3644,13 +4205,16 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C192">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D192">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E192">
+        <v>43</v>
       </c>
       <c r="F192">
         <v>1</v>
@@ -3661,13 +4225,16 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C193">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D193">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E193">
+        <v>43</v>
       </c>
       <c r="F193">
         <v>1</v>
@@ -3678,13 +4245,16 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C194">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D194">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E194">
+        <v>43</v>
       </c>
       <c r="F194">
         <v>1</v>
@@ -3695,13 +4265,16 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C195">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D195">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E195">
+        <v>43</v>
       </c>
       <c r="F195">
         <v>1</v>
@@ -3712,13 +4285,16 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C196">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D196">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E196">
+        <v>43</v>
       </c>
       <c r="F196">
         <v>1</v>
@@ -3729,13 +4305,16 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C197">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D197">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E197">
+        <v>43</v>
       </c>
       <c r="F197">
         <v>1</v>
@@ -3746,13 +4325,16 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C198">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D198">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E198">
+        <v>43</v>
       </c>
       <c r="F198">
         <v>1</v>
@@ -3763,13 +4345,16 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C199">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D199">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E199">
+        <v>43</v>
       </c>
       <c r="F199">
         <v>1</v>
@@ -3780,13 +4365,16 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C200">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D200">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E200">
+        <v>43</v>
       </c>
       <c r="F200">
         <v>1</v>
@@ -3797,13 +4385,16 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C201">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D201">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E201">
+        <v>43</v>
       </c>
       <c r="F201">
         <v>1</v>
@@ -3814,13 +4405,16 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C202">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D202">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E202">
+        <v>43</v>
       </c>
       <c r="F202">
         <v>1</v>
@@ -3831,13 +4425,16 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C203">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D203">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E203">
+        <v>43</v>
       </c>
       <c r="F203">
         <v>1</v>
@@ -3848,13 +4445,16 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C204">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D204">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E204">
+        <v>43</v>
       </c>
       <c r="F204">
         <v>1</v>
@@ -3865,13 +4465,16 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C205">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D205">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E205">
+        <v>43</v>
       </c>
       <c r="F205">
         <v>1</v>
@@ -3882,13 +4485,16 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C206">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D206">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E206">
+        <v>43</v>
       </c>
       <c r="F206">
         <v>1</v>
@@ -3899,13 +4505,16 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C207">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D207">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E207">
+        <v>43</v>
       </c>
       <c r="F207">
         <v>1</v>
@@ -3916,13 +4525,16 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C208">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D208">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E208">
+        <v>43</v>
       </c>
       <c r="F208">
         <v>1</v>
@@ -3933,13 +4545,16 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>-0.311055928552401</v>
+        <v>-0.3843658924236754</v>
       </c>
       <c r="C209">
-        <v>-0.2262650517007396</v>
+        <v>-0.1856539530991865</v>
       </c>
       <c r="D209">
-        <v>-0.4210300551229491</v>
+        <v>-0.3737321796697433</v>
+      </c>
+      <c r="E209">
+        <v>43</v>
       </c>
       <c r="F209">
         <v>1</v>
@@ -3950,13 +4565,16 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>-1.719852210645006</v>
+        <v>1.929022306017552</v>
       </c>
       <c r="C210">
-        <v>-1.367769582765158</v>
+        <v>1.156586537396827</v>
       </c>
       <c r="D210">
-        <v>1.575349249059435</v>
+        <v>3.544071239939695</v>
+      </c>
+      <c r="E210">
+        <v>44</v>
       </c>
       <c r="F210">
         <v>2</v>
@@ -3967,13 +4585,16 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>-1.264311269815678</v>
+        <v>2.632474564310635</v>
       </c>
       <c r="C211">
-        <v>-1.280126494783423</v>
+        <v>2.619139517469245</v>
       </c>
       <c r="D211">
-        <v>0.7453562274029326</v>
+        <v>3.938311593257738</v>
+      </c>
+      <c r="E211">
+        <v>44</v>
       </c>
       <c r="F211">
         <v>2</v>
@@ -3984,16 +4605,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>-1.068125786921529</v>
+        <v>3.101578050949418</v>
       </c>
       <c r="C212">
-        <v>-1.163396436161777</v>
+        <v>1.463237812580603</v>
       </c>
       <c r="D212">
-        <v>0.3899930707282037</v>
+        <v>3.023102912977093</v>
+      </c>
+      <c r="E212">
+        <v>44</v>
       </c>
       <c r="F212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4001,16 +4625,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>-2.705150771326374</v>
+        <v>10.54330994691331</v>
       </c>
       <c r="C213">
-        <v>-3.086429087476549</v>
+        <v>4.60733091490084</v>
       </c>
       <c r="D213">
-        <v>2.05136856441223</v>
+        <v>9.993061487490968</v>
+      </c>
+      <c r="E213">
+        <v>44</v>
       </c>
       <c r="F213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4018,16 +4645,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>-0.5273888657836012</v>
+        <v>1.018952176483568</v>
       </c>
       <c r="C214">
-        <v>-0.5314697121889794</v>
+        <v>0.06933596157597527</v>
       </c>
       <c r="D214">
-        <v>-0.2323601878386594</v>
+        <v>0.5865417070310059</v>
+      </c>
+      <c r="E214">
+        <v>44</v>
       </c>
       <c r="F214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4035,16 +4665,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>-0.399170364771022</v>
+        <v>-0.1294591157138191</v>
       </c>
       <c r="C215">
-        <v>-0.3214777073260666</v>
+        <v>0.08632573013515127</v>
       </c>
       <c r="D215">
-        <v>-0.310680422446504</v>
+        <v>0.02546306806631327</v>
+      </c>
+      <c r="E215">
+        <v>44</v>
       </c>
       <c r="F215">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4052,13 +4685,16 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>-1.597992573506008</v>
+        <v>3.87685388139279</v>
       </c>
       <c r="C216">
-        <v>-1.529540966219883</v>
+        <v>2.515912810974286</v>
       </c>
       <c r="D216">
-        <v>1.051937491992835</v>
+        <v>4.986259993819339</v>
+      </c>
+      <c r="E216">
+        <v>44</v>
       </c>
       <c r="F216">
         <v>2</v>
@@ -4069,13 +4705,16 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>-0.7075708915361956</v>
+        <v>0.762714602770678</v>
       </c>
       <c r="C217">
-        <v>-0.654722002014711</v>
+        <v>1.038254621455333</v>
       </c>
       <c r="D217">
-        <v>0.07554329192105419</v>
+        <v>1.422646435142511</v>
+      </c>
+      <c r="E217">
+        <v>44</v>
       </c>
       <c r="F217">
         <v>2</v>
@@ -4086,13 +4725,16 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>-0.6635136734268852</v>
+        <v>0.6352612144157498</v>
       </c>
       <c r="C218">
-        <v>-0.6071156742020475</v>
+        <v>0.9022647798381644</v>
       </c>
       <c r="D218">
-        <v>0.02036847558283161</v>
+        <v>1.223048811274483</v>
+      </c>
+      <c r="E218">
+        <v>44</v>
       </c>
       <c r="F218">
         <v>2</v>
@@ -4103,16 +4745,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>-0.6595605201115329</v>
+        <v>1.401312341548353</v>
       </c>
       <c r="C219">
-        <v>-0.6742886956269699</v>
+        <v>0.4773054864274819</v>
       </c>
       <c r="D219">
-        <v>-0.06683573882399169</v>
+        <v>1.185334578635091</v>
+      </c>
+      <c r="E219">
+        <v>44</v>
       </c>
       <c r="F219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4120,13 +4765,16 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>-0.6475102162853308</v>
+        <v>0.8481271273416414</v>
       </c>
       <c r="C220">
-        <v>-0.6136379054061337</v>
+        <v>0.7152817348288807</v>
       </c>
       <c r="D220">
-        <v>-0.02709120133218368</v>
+        <v>1.143944859105343</v>
+      </c>
+      <c r="E220">
+        <v>44</v>
       </c>
       <c r="F220">
         <v>2</v>
@@ -4137,13 +4785,16 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>-2.031809071735739</v>
+        <v>5.402999891132296</v>
       </c>
       <c r="C221">
-        <v>-2.061971563092002</v>
+        <v>4.125558338248022</v>
       </c>
       <c r="D221">
-        <v>1.55004143824417</v>
+        <v>6.963521726993327</v>
+      </c>
+      <c r="E221">
+        <v>44</v>
       </c>
       <c r="F221">
         <v>2</v>
@@ -4154,16 +4805,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>-0.6876142810792891</v>
+        <v>1.741631642829172</v>
       </c>
       <c r="C222">
-        <v>-0.7284172546437196</v>
+        <v>0.426312283035367</v>
       </c>
       <c r="D222">
-        <v>-0.0591205994007844</v>
+        <v>1.305828250333979</v>
+      </c>
+      <c r="E222">
+        <v>44</v>
       </c>
       <c r="F222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4171,13 +4825,16 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>-1.420583531796014</v>
+        <v>4.121205157788842</v>
       </c>
       <c r="C223">
-        <v>-1.544247058663085</v>
+        <v>2.551156545517954</v>
       </c>
       <c r="D223">
-        <v>0.8313916014339844</v>
+        <v>4.619883903921319</v>
+      </c>
+      <c r="E223">
+        <v>44</v>
       </c>
       <c r="F223">
         <v>2</v>
@@ -4188,16 +4845,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>-0.4272241257387783</v>
+        <v>0.2108601855670006</v>
       </c>
       <c r="C224">
-        <v>-0.3756062663428164</v>
+        <v>0.03533252674303633</v>
       </c>
       <c r="D224">
-        <v>-0.3029652830232966</v>
+        <v>0.1459567397652014</v>
+      </c>
+      <c r="E224">
+        <v>44</v>
       </c>
       <c r="F224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4205,13 +4865,16 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>-1.012018264986017</v>
+        <v>2.420939448387778</v>
       </c>
       <c r="C225">
-        <v>-1.055139318128278</v>
+        <v>1.565224219364833</v>
       </c>
       <c r="D225">
-        <v>0.3745627918817891</v>
+        <v>2.782115569579317</v>
+      </c>
+      <c r="E225">
+        <v>44</v>
       </c>
       <c r="F225">
         <v>2</v>
@@ -4222,13 +4885,16 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>-0.8517928496903291</v>
+        <v>1.698259982042174</v>
       </c>
       <c r="C226">
-        <v>-0.8581917756735375</v>
+        <v>1.208247897905441</v>
       </c>
       <c r="D226">
-        <v>0.201323203443914</v>
+        <v>2.062829026276344</v>
+      </c>
+      <c r="E226">
+        <v>44</v>
       </c>
       <c r="F226">
         <v>2</v>
@@ -4239,13 +4905,16 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>-0.6915674343946414</v>
+        <v>0.9755805156965695</v>
       </c>
       <c r="C227">
-        <v>-0.6612442332187972</v>
+        <v>0.8512715764460494</v>
       </c>
       <c r="D227">
-        <v>0.0280836150060389</v>
+        <v>1.343542482973371</v>
+      </c>
+      <c r="E227">
+        <v>44</v>
       </c>
       <c r="F227">
         <v>2</v>
@@ -4256,13 +4925,16 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>-1.723240341928012</v>
+        <v>4.456203629646085</v>
       </c>
       <c r="C228">
-        <v>-1.710199235802259</v>
+        <v>2.828721879502174</v>
       </c>
       <c r="D228">
-        <v>1.185264925564969</v>
+        <v>5.337664889046288</v>
+      </c>
+      <c r="E228">
+        <v>44</v>
       </c>
       <c r="F228">
         <v>2</v>
@@ -4273,13 +4945,16 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>-0.7796818706132624</v>
+        <v>1.230487292406426</v>
       </c>
       <c r="C229">
-        <v>-0.7564568888441242</v>
+        <v>1.123251259680387</v>
       </c>
       <c r="D229">
-        <v>0.1384332476824841</v>
+        <v>1.742737730709427</v>
+      </c>
+      <c r="E229">
+        <v>44</v>
       </c>
       <c r="F229">
         <v>2</v>
@@ -4290,13 +4965,16 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>-0.8237390887225728</v>
+        <v>1.357940680761354</v>
       </c>
       <c r="C230">
-        <v>-0.8040632166567877</v>
+        <v>1.259241101297556</v>
       </c>
       <c r="D230">
-        <v>0.1936080640207067</v>
+        <v>1.942335354577456</v>
+      </c>
+      <c r="E230">
+        <v>44</v>
       </c>
       <c r="F230">
         <v>2</v>
@@ -4307,13 +4985,16 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>-0.9191832616764175</v>
+        <v>0.1582651975648698</v>
       </c>
       <c r="C231">
-        <v>-0.6313161518961795</v>
+        <v>0.5885380151027741</v>
       </c>
       <c r="D231">
-        <v>0.421297770813839</v>
+        <v>1.25039468575994</v>
+      </c>
+      <c r="E231">
+        <v>44</v>
       </c>
       <c r="F231">
         <v>2</v>
@@ -4324,13 +5005,16 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>-1.212375680164367</v>
+        <v>1.469797709451602</v>
       </c>
       <c r="C232">
-        <v>-0.9852333381533831</v>
+        <v>1.257476661921929</v>
       </c>
       <c r="D232">
-        <v>0.7269778383123866</v>
+        <v>2.741454731911952</v>
+      </c>
+      <c r="E232">
+        <v>44</v>
       </c>
       <c r="F232">
         <v>2</v>
@@ -4341,13 +5025,16 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>-2.163318857581876</v>
+        <v>4.940470370661149</v>
       </c>
       <c r="C233">
-        <v>-2.07536798782565</v>
+        <v>3.694827866647114</v>
       </c>
       <c r="D233">
-        <v>1.7760856880607</v>
+        <v>7.300700429413412</v>
+      </c>
+      <c r="E233">
+        <v>44</v>
       </c>
       <c r="F233">
         <v>2</v>
@@ -4358,13 +5045,16 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>-1.435396313367266</v>
+        <v>2.230093531141778</v>
       </c>
       <c r="C234">
-        <v>-1.190239495820787</v>
+        <v>1.988751229276089</v>
       </c>
       <c r="D234">
-        <v>0.9477120262283343</v>
+        <v>3.726159938093518</v>
+      </c>
+      <c r="E234">
+        <v>44</v>
       </c>
       <c r="F234">
         <v>2</v>
@@ -4375,16 +5065,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>-2.852564685632367</v>
+        <v>10.85194254149143</v>
       </c>
       <c r="C235">
-        <v>-3.222029966978066</v>
+        <v>4.755417072698411</v>
       </c>
       <c r="D235">
-        <v>2.257346444528423</v>
+        <v>10.6160276514048</v>
+      </c>
+      <c r="E235">
+        <v>44</v>
       </c>
       <c r="F235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -4392,16 +5085,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>-0.6155033020022223</v>
+        <v>1.273858953193424</v>
       </c>
       <c r="C236">
-        <v>-0.6266823678143064</v>
+        <v>0.341315644810313</v>
       </c>
       <c r="D236">
-        <v>-0.1220105551622143</v>
+        <v>0.9857369547670625</v>
+      </c>
+      <c r="E236">
+        <v>44</v>
       </c>
       <c r="F236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -4409,16 +5105,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>-0.8638431535165312</v>
+        <v>2.251445196248885</v>
       </c>
       <c r="C237">
-        <v>-0.9188425658943736</v>
+        <v>0.9702716495040424</v>
       </c>
       <c r="D237">
-        <v>0.161578665952106</v>
+        <v>2.104218745806092</v>
+      </c>
+      <c r="E237">
+        <v>44</v>
       </c>
       <c r="F237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -4426,16 +5125,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>-0.6604376316838338</v>
+        <v>0.4227448597824125</v>
       </c>
       <c r="C238">
-        <v>-0.4659267929598162</v>
+        <v>-0.1587638932422257</v>
       </c>
       <c r="D238">
-        <v>-0.03506449772811326</v>
+        <v>0.4144021648181105</v>
+      </c>
+      <c r="E238">
+        <v>44</v>
       </c>
       <c r="F238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -4443,13 +5145,16 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>-1.344006769466538</v>
+        <v>1.997062365259357</v>
       </c>
       <c r="C239">
-        <v>-0.9325132183141286</v>
+        <v>1.019321865988606</v>
       </c>
       <c r="D239">
-        <v>0.7436177261952466</v>
+        <v>2.66170105727591</v>
+      </c>
+      <c r="E239">
+        <v>44</v>
       </c>
       <c r="F239">
         <v>2</v>
@@ -4460,13 +5165,16 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>-0.8357893925487749</v>
+        <v>1.911125894968065</v>
       </c>
       <c r="C240">
-        <v>-0.8647140068776238</v>
+        <v>1.021264852896157</v>
       </c>
       <c r="D240">
-        <v>0.1538635265288987</v>
+        <v>1.983725074107204</v>
+      </c>
+      <c r="E240">
+        <v>44</v>
       </c>
       <c r="F240">
         <v>2</v>
@@ -4477,16 +5185,19 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>-0.9079003716258416</v>
+        <v>2.378898584603813</v>
       </c>
       <c r="C241">
-        <v>-0.9664488937070371</v>
+        <v>1.106261491121211</v>
       </c>
       <c r="D241">
-        <v>0.2167534822903285</v>
+        <v>2.30381636967412</v>
+      </c>
+      <c r="E241">
+        <v>44</v>
       </c>
       <c r="F241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -4494,13 +5205,16 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>-1.540704882297743</v>
+        <v>3.950380108646915</v>
       </c>
       <c r="C242">
-        <v>-1.626415251880239</v>
+        <v>3.197102318770859</v>
       </c>
       <c r="D242">
-        <v>1.03666058794046</v>
+        <v>5.177287055995656</v>
+      </c>
+      <c r="E242">
+        <v>44</v>
       </c>
       <c r="F242">
         <v>2</v>
@@ -4511,16 +5225,19 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>-0.399170364771022</v>
+        <v>-0.1294591157138191</v>
       </c>
       <c r="C243">
-        <v>-0.3214777073260666</v>
+        <v>0.08632573013515127</v>
       </c>
       <c r="D243">
-        <v>-0.310680422446504</v>
+        <v>0.02546306806631327</v>
+      </c>
+      <c r="E243">
+        <v>44</v>
       </c>
       <c r="F243">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -4528,13 +5245,16 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>-1.289829436636212</v>
+        <v>1.665281878336847</v>
       </c>
       <c r="C244">
-        <v>-1.065712398810653</v>
+        <v>2.234785049436286</v>
       </c>
       <c r="D244">
-        <v>0.8016012751440356</v>
+        <v>3.586356227422105</v>
+      </c>
+      <c r="E244">
+        <v>44</v>
       </c>
       <c r="F244">
         <v>2</v>
@@ -4545,13 +5265,16 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>-2.029333020632649</v>
+        <v>6.172246527477736</v>
       </c>
       <c r="C245">
-        <v>-2.104970178892696</v>
+        <v>3.463845242743019</v>
       </c>
       <c r="D245">
-        <v>1.4537537451427</v>
+        <v>6.93310155758426</v>
+      </c>
+      <c r="E245">
+        <v>44</v>
       </c>
       <c r="F245">
         <v>2</v>
@@ -4562,13 +5285,16 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>-0.8958500677996397</v>
+        <v>1.825713370397102</v>
       </c>
       <c r="C246">
-        <v>-0.905798103486201</v>
+        <v>1.34423773952261</v>
       </c>
       <c r="D246">
-        <v>0.2564980197821366</v>
+        <v>2.262426650144372</v>
+      </c>
+      <c r="E246">
+        <v>44</v>
       </c>
       <c r="F246">
         <v>2</v>
@@ -4579,13 +5305,16 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>-1.280314726957232</v>
+        <v>2.419608651384744</v>
       </c>
       <c r="C247">
-        <v>-1.273604263579336</v>
+        <v>2.806122562478529</v>
       </c>
       <c r="D247">
-        <v>0.7928159043179479</v>
+        <v>4.017415545426879</v>
+      </c>
+      <c r="E247">
+        <v>44</v>
       </c>
       <c r="F247">
         <v>2</v>
@@ -4596,16 +5325,19 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>-0.3671634504879135</v>
+        <v>0.2962727101379641</v>
       </c>
       <c r="C248">
-        <v>-0.3345221697342392</v>
+        <v>-0.2876403598834164</v>
       </c>
       <c r="D248">
-        <v>-0.4055997762765345</v>
+        <v>-0.132744836271967</v>
+      </c>
+      <c r="E248">
+        <v>44</v>
       </c>
       <c r="F248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -4613,13 +5345,16 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>-2.506996858691728</v>
+        <v>8.691575331581431</v>
       </c>
       <c r="C249">
-        <v>-2.744507566503648</v>
+        <v>4.386402169316646</v>
       </c>
       <c r="D249">
-        <v>1.950765918712279</v>
+        <v>8.950912115535512</v>
+      </c>
+      <c r="E249">
+        <v>45</v>
       </c>
       <c r="F249">
         <v>2</v>
@@ -4630,13 +5365,16 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>-0.6315067591437766</v>
+        <v>1.060993040267533</v>
       </c>
       <c r="C250">
-        <v>-0.6201601366102201</v>
+        <v>0.5282986898195969</v>
       </c>
       <c r="D250">
-        <v>-0.07455087824719897</v>
+        <v>1.064840906936203</v>
+      </c>
+      <c r="E250">
+        <v>45</v>
       </c>
       <c r="F250">
         <v>2</v>
@@ -4647,13 +5385,16 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>-1.008860599095025</v>
+        <v>1.506821531909354</v>
       </c>
       <c r="C251">
-        <v>-0.8637225663774872</v>
+        <v>1.275601682966351</v>
       </c>
       <c r="D251">
-        <v>0.3761793439249889</v>
+        <v>2.236345882410979</v>
+      </c>
+      <c r="E251">
+        <v>45</v>
       </c>
       <c r="F251">
         <v>2</v>
@@ -4664,13 +5405,16 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>-0.9416393439808941</v>
+        <v>-0.5306154935014219</v>
       </c>
       <c r="C252">
-        <v>-0.5651961029733116</v>
+        <v>0.4689076703526459</v>
       </c>
       <c r="D252">
-        <v>0.5543262807496632</v>
+        <v>1.009295135192487</v>
+      </c>
+      <c r="E252">
+        <v>45</v>
       </c>
       <c r="F252">
         <v>2</v>
@@ -4681,13 +5425,16 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>-2.879382926001727</v>
+        <v>8.91053884315617</v>
       </c>
       <c r="C253">
-        <v>-3.019309967191805</v>
+        <v>5.409904512359126</v>
       </c>
       <c r="D253">
-        <v>2.491486335474598</v>
+        <v>10.62024297440474</v>
+      </c>
+      <c r="E253">
+        <v>45</v>
       </c>
       <c r="F253">
         <v>2</v>
@@ -4698,13 +5445,16 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>-0.6635136734268852</v>
+        <v>0.6352612144157498</v>
       </c>
       <c r="C254">
-        <v>-0.6071156742020475</v>
+        <v>0.9022647798381644</v>
       </c>
       <c r="D254">
-        <v>0.02036847558283161</v>
+        <v>1.223048811274483</v>
+      </c>
+      <c r="E254">
+        <v>45</v>
       </c>
       <c r="F254">
         <v>2</v>
@@ -4715,13 +5465,16 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>-4.249294438814714</v>
+        <v>12.864497781584</v>
       </c>
       <c r="C255">
-        <v>-4.452680817331706</v>
+        <v>8.560039650278116</v>
       </c>
       <c r="D255">
-        <v>4.247717830986621</v>
+        <v>16.95572856983456</v>
+      </c>
+      <c r="E255">
+        <v>45</v>
       </c>
       <c r="F255">
         <v>2</v>
@@ -4732,13 +5485,16 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>-3.16710222747824</v>
+        <v>9.437237245880237</v>
       </c>
       <c r="C256">
-        <v>-3.289251926247152</v>
+        <v>5.114354394705005</v>
       </c>
       <c r="D256">
-        <v>2.893268175279105</v>
+        <v>12.00696885920966</v>
+      </c>
+      <c r="E256">
+        <v>45</v>
       </c>
       <c r="F256">
         <v>2</v>
@@ -4749,13 +5505,16 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>-1.425755772984943</v>
+        <v>2.029997052799325</v>
       </c>
       <c r="C257">
-        <v>-0.9959963692595788</v>
+        <v>1.138923639352866</v>
       </c>
       <c r="D257">
-        <v>0.8798828865296628</v>
+        <v>2.893551325472543</v>
+      </c>
+      <c r="E257">
+        <v>45</v>
       </c>
       <c r="F257">
         <v>2</v>
@@ -4766,13 +5525,16 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>-2.560473457372871</v>
+        <v>7.919470117791167</v>
       </c>
       <c r="C258">
-        <v>-2.669596487662188</v>
+        <v>3.68676335247756</v>
       </c>
       <c r="D258">
-        <v>2.105086404683418</v>
+        <v>8.883247847204768</v>
+      </c>
+      <c r="E258">
+        <v>45</v>
       </c>
       <c r="F258">
         <v>2</v>
@@ -4783,16 +5545,19 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>-0.3391096895201572</v>
+        <v>-0.04404659114285564</v>
       </c>
       <c r="C259">
-        <v>-0.2803936107174894</v>
+        <v>-0.2366471564913014</v>
       </c>
       <c r="D259">
-        <v>-0.4133149156997418</v>
+        <v>-0.2532385079708551</v>
+      </c>
+      <c r="E259">
+        <v>45</v>
       </c>
       <c r="F259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -4800,13 +5565,16 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>-0.4872848009896431</v>
+        <v>0.1254476609960372</v>
       </c>
       <c r="C260">
-        <v>-0.4166903629513935</v>
+        <v>0.358305413369489</v>
       </c>
       <c r="D260">
-        <v>-0.2003307897700587</v>
+        <v>0.4246583158023698</v>
+      </c>
+      <c r="E260">
+        <v>45</v>
       </c>
       <c r="F260">
         <v>2</v>
@@ -4817,13 +5585,16 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>-1.101306121585245</v>
+        <v>0.7747302539082995</v>
       </c>
       <c r="C261">
-        <v>-0.8180457905946819</v>
+        <v>0.5925255709473154</v>
       </c>
       <c r="D261">
-        <v>0.661698869602763</v>
+        <v>1.759439165358613</v>
+      </c>
+      <c r="E261">
+        <v>45</v>
       </c>
       <c r="F261">
         <v>2</v>
@@ -4834,13 +5605,16 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>-0.5593957800667098</v>
+        <v>0.5932203506317851</v>
       </c>
       <c r="C262">
-        <v>-0.5184252497808068</v>
+        <v>0.443302051594543</v>
       </c>
       <c r="D262">
-        <v>-0.1374408340086288</v>
+        <v>0.7447496113692862</v>
+      </c>
+      <c r="E262">
+        <v>45</v>
       </c>
       <c r="F262">
         <v>2</v>
@@ -4851,13 +5625,16 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>-3.558791715507277</v>
+        <v>9.003189916430964</v>
       </c>
       <c r="C263">
-        <v>-3.608775260049307</v>
+        <v>8.470943943984937</v>
       </c>
       <c r="D263">
-        <v>3.574818515482857</v>
+        <v>13.75407211825867</v>
+      </c>
+      <c r="E263">
+        <v>45</v>
       </c>
       <c r="F263">
         <v>2</v>
@@ -4868,16 +5645,19 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>-0.7476749563301539</v>
+        <v>1.656219118258209</v>
       </c>
       <c r="C264">
-        <v>-0.7695013512522968</v>
+        <v>0.7492851696618197</v>
       </c>
       <c r="D264">
-        <v>0.04351389385245352</v>
+        <v>1.584529826371147</v>
+      </c>
+      <c r="E264">
+        <v>45</v>
       </c>
       <c r="F264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -4885,13 +5665,16 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>-0.7196211953623977</v>
+        <v>1.315899816977389</v>
       </c>
       <c r="C265">
-        <v>-0.7153727922355471</v>
+        <v>0.8002783730539347</v>
       </c>
       <c r="D265">
-        <v>0.03579875442924618</v>
+        <v>1.464036154672259</v>
+      </c>
+      <c r="E265">
+        <v>45</v>
       </c>
       <c r="F265">
         <v>2</v>
@@ -4902,13 +5685,16 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>-0.8815786687300293</v>
+        <v>-0.4452029689304585</v>
       </c>
       <c r="C266">
-        <v>-0.5241120063647344</v>
+        <v>0.1459347837261932</v>
       </c>
       <c r="D266">
-        <v>0.4516917874964252</v>
+        <v>0.730593559155319</v>
+      </c>
+      <c r="E266">
+        <v>45</v>
       </c>
       <c r="F266">
         <v>2</v>
@@ -4919,13 +5705,16 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>-1.907991456256213</v>
+        <v>2.585964543589661</v>
       </c>
       <c r="C267">
-        <v>-1.637787422770986</v>
+        <v>3.381745487634816</v>
       </c>
       <c r="D267">
-        <v>1.641367304740595</v>
+        <v>5.958890514940804</v>
+      </c>
+      <c r="E267">
+        <v>45</v>
       </c>
       <c r="F267">
         <v>2</v>
@@ -4936,13 +5725,16 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>-0.5593957800667098</v>
+        <v>0.5932203506317851</v>
       </c>
       <c r="C268">
-        <v>-0.5184252497808068</v>
+        <v>0.443302051594543</v>
       </c>
       <c r="D268">
-        <v>-0.1374408340086288</v>
+        <v>0.7447496113692862</v>
+      </c>
+      <c r="E268">
+        <v>45</v>
       </c>
       <c r="F268">
         <v>2</v>
@@ -4953,13 +5745,16 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>-0.5753992372082641</v>
+        <v>0.3803544377058935</v>
       </c>
       <c r="C269">
-        <v>-0.5119030185767205</v>
+        <v>0.6302850966038267</v>
       </c>
       <c r="D269">
-        <v>-0.08998115709361354</v>
+        <v>0.8238535635384263</v>
+      </c>
+      <c r="E269">
+        <v>45</v>
       </c>
       <c r="F269">
         <v>2</v>
